--- a/STUDIO/org.openl.rules.test/test-resources/functionality/properties_all_table_type_allowed.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/properties_all_table_type_allowed.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EIS_Sources\OpenL\openl-tablets\STUDIO\org.openl.rules.test\test-resources\functionality\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0BBA74-7EC4-4C9B-9C6A-B44317AB002E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="19635" windowHeight="8130"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Allowed_Poperties" sheetId="5" r:id="rId1"/>
@@ -14,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="B105" authorId="0">
+    <comment ref="B105" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -33,7 +39,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F107" authorId="0">
+    <comment ref="F107" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -47,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D112" authorId="0">
+    <comment ref="D112" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -82,7 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D113" authorId="0">
+    <comment ref="D113" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -96,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F113" authorId="0">
+    <comment ref="F113" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -131,7 +137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E114" authorId="0">
+    <comment ref="E114" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -145,7 +151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B115" authorId="0">
+    <comment ref="B115" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -159,7 +165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D115" authorId="0">
+    <comment ref="D115" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -184,7 +190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F116" authorId="0">
+    <comment ref="F116" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -198,7 +204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F117" authorId="0">
+    <comment ref="F117" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -981,7 +987,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="18">
     <font>
       <sz val="10"/>
@@ -1492,7 +1498,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1657,130 +1663,124 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1807,7 +1807,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1816,14 +1816,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1861,9 +1864,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1896,9 +1899,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1931,9 +1951,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2106,14 +2143,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A3:H455"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A358" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C429" sqref="C429"/>
+    <sheetView tabSelected="1" topLeftCell="A428" zoomScale="125" workbookViewId="0">
+      <selection activeCell="G450" sqref="G450"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1"/>
@@ -2124,15 +2161,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:5" collapsed="1">
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="114" t="s">
         <v>171</v>
       </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B4" s="113" t="s">
+      <c r="B4" s="98" t="s">
         <v>180</v>
       </c>
       <c r="C4" s="36" t="s">
@@ -2144,7 +2181,7 @@
       <c r="E4" s="45"/>
     </row>
     <row r="5" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B5" s="113"/>
+      <c r="B5" s="98"/>
       <c r="C5" s="36" t="s">
         <v>230</v>
       </c>
@@ -2154,7 +2191,7 @@
       <c r="E5" s="46"/>
     </row>
     <row r="6" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B6" s="113"/>
+      <c r="B6" s="98"/>
       <c r="C6" s="36" t="s">
         <v>227</v>
       </c>
@@ -2164,7 +2201,7 @@
       <c r="E6" s="46"/>
     </row>
     <row r="7" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B7" s="113"/>
+      <c r="B7" s="98"/>
       <c r="C7" s="36" t="s">
         <v>226</v>
       </c>
@@ -2174,7 +2211,7 @@
       <c r="E7" s="44"/>
     </row>
     <row r="8" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B8" s="113"/>
+      <c r="B8" s="98"/>
       <c r="C8" s="36" t="s">
         <v>222</v>
       </c>
@@ -2184,7 +2221,7 @@
       <c r="E8" s="44"/>
     </row>
     <row r="9" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B9" s="113"/>
+      <c r="B9" s="98"/>
       <c r="C9" s="36" t="s">
         <v>220</v>
       </c>
@@ -2194,7 +2231,7 @@
       <c r="E9" s="44"/>
     </row>
     <row r="10" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B10" s="113"/>
+      <c r="B10" s="98"/>
       <c r="C10" s="36" t="s">
         <v>218</v>
       </c>
@@ -2204,7 +2241,7 @@
       <c r="E10" s="44"/>
     </row>
     <row r="11" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B11" s="113"/>
+      <c r="B11" s="98"/>
       <c r="C11" s="36" t="s">
         <v>216</v>
       </c>
@@ -2214,7 +2251,7 @@
       <c r="E11" s="44"/>
     </row>
     <row r="12" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B12" s="113"/>
+      <c r="B12" s="98"/>
       <c r="C12" s="36" t="s">
         <v>214</v>
       </c>
@@ -2224,7 +2261,7 @@
       <c r="E12" s="44"/>
     </row>
     <row r="13" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B13" s="113"/>
+      <c r="B13" s="98"/>
       <c r="C13" s="36" t="s">
         <v>213</v>
       </c>
@@ -2234,7 +2271,7 @@
       <c r="E13" s="44"/>
     </row>
     <row r="14" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B14" s="113"/>
+      <c r="B14" s="98"/>
       <c r="C14" s="36" t="s">
         <v>211</v>
       </c>
@@ -2244,7 +2281,7 @@
       <c r="E14" s="44"/>
     </row>
     <row r="15" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B15" s="113"/>
+      <c r="B15" s="98"/>
       <c r="C15" s="36" t="s">
         <v>209</v>
       </c>
@@ -2254,7 +2291,7 @@
       <c r="E15" s="44"/>
     </row>
     <row r="16" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B16" s="113"/>
+      <c r="B16" s="98"/>
       <c r="C16" s="36" t="s">
         <v>207</v>
       </c>
@@ -2264,7 +2301,7 @@
       <c r="E16" s="44"/>
     </row>
     <row r="17" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B17" s="113"/>
+      <c r="B17" s="98"/>
       <c r="C17" s="36" t="s">
         <v>205</v>
       </c>
@@ -2274,7 +2311,7 @@
       <c r="E17" s="44"/>
     </row>
     <row r="18" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B18" s="113"/>
+      <c r="B18" s="98"/>
       <c r="C18" s="36" t="s">
         <v>203</v>
       </c>
@@ -2284,7 +2321,7 @@
       <c r="E18" s="44"/>
     </row>
     <row r="19" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B19" s="113"/>
+      <c r="B19" s="98"/>
       <c r="C19" s="36" t="s">
         <v>201</v>
       </c>
@@ -2294,7 +2331,7 @@
       <c r="E19" s="44"/>
     </row>
     <row r="20" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B20" s="113"/>
+      <c r="B20" s="98"/>
       <c r="C20" s="36" t="s">
         <v>199</v>
       </c>
@@ -2304,7 +2341,7 @@
       <c r="E20" s="44"/>
     </row>
     <row r="21" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B21" s="113"/>
+      <c r="B21" s="98"/>
       <c r="C21" s="36" t="s">
         <v>198</v>
       </c>
@@ -2314,7 +2351,7 @@
       <c r="E21" s="44"/>
     </row>
     <row r="22" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B22" s="113"/>
+      <c r="B22" s="98"/>
       <c r="C22" s="36" t="s">
         <v>197</v>
       </c>
@@ -2324,7 +2361,7 @@
       <c r="E22" s="44"/>
     </row>
     <row r="23" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B23" s="113"/>
+      <c r="B23" s="98"/>
       <c r="C23" s="36" t="s">
         <v>196</v>
       </c>
@@ -2334,7 +2371,7 @@
       <c r="E23" s="44"/>
     </row>
     <row r="24" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B24" s="113"/>
+      <c r="B24" s="98"/>
       <c r="C24" s="36" t="s">
         <v>195</v>
       </c>
@@ -2344,7 +2381,7 @@
       <c r="E24" s="44"/>
     </row>
     <row r="25" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B25" s="113"/>
+      <c r="B25" s="98"/>
       <c r="C25" s="36" t="s">
         <v>193</v>
       </c>
@@ -2354,7 +2391,7 @@
       <c r="E25" s="44"/>
     </row>
     <row r="26" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B26" s="113"/>
+      <c r="B26" s="98"/>
       <c r="C26" s="36" t="s">
         <v>190</v>
       </c>
@@ -2364,7 +2401,7 @@
       <c r="E26" s="44"/>
     </row>
     <row r="27" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B27" s="113"/>
+      <c r="B27" s="98"/>
       <c r="C27" s="36" t="s">
         <v>188</v>
       </c>
@@ -2374,7 +2411,7 @@
       <c r="E27" s="44"/>
     </row>
     <row r="28" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B28" s="113"/>
+      <c r="B28" s="98"/>
       <c r="C28" s="36" t="s">
         <v>181</v>
       </c>
@@ -2384,7 +2421,7 @@
       <c r="E28" s="44"/>
     </row>
     <row r="29" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B29" s="113"/>
+      <c r="B29" s="98"/>
       <c r="C29" s="37" t="s">
         <v>182</v>
       </c>
@@ -2394,7 +2431,7 @@
       <c r="E29" s="44"/>
     </row>
     <row r="30" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B30" s="113"/>
+      <c r="B30" s="98"/>
       <c r="C30" s="36" t="s">
         <v>183</v>
       </c>
@@ -2410,7 +2447,7 @@
       <c r="C31" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="87" t="s">
+      <c r="D31" s="85" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2515,7 +2552,7 @@
     </row>
     <row r="42" spans="1:8" hidden="1" outlineLevel="1">
       <c r="A42" s="19"/>
-      <c r="B42" s="100" t="s">
+      <c r="B42" s="95" t="s">
         <v>180</v>
       </c>
       <c r="C42" s="48" t="s">
@@ -2531,7 +2568,7 @@
     </row>
     <row r="43" spans="1:8" s="41" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A43" s="47"/>
-      <c r="B43" s="100"/>
+      <c r="B43" s="95"/>
       <c r="C43" s="48" t="s">
         <v>231</v>
       </c>
@@ -2545,7 +2582,7 @@
     </row>
     <row r="44" spans="1:8" s="41" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A44" s="47"/>
-      <c r="B44" s="100"/>
+      <c r="B44" s="95"/>
       <c r="C44" s="48" t="s">
         <v>230</v>
       </c>
@@ -2559,7 +2596,7 @@
     </row>
     <row r="45" spans="1:8" s="41" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A45" s="47"/>
-      <c r="B45" s="100"/>
+      <c r="B45" s="95"/>
       <c r="C45" s="48" t="s">
         <v>227</v>
       </c>
@@ -2573,7 +2610,7 @@
     </row>
     <row r="46" spans="1:8" s="41" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A46" s="47"/>
-      <c r="B46" s="100"/>
+      <c r="B46" s="95"/>
       <c r="C46" s="48" t="s">
         <v>226</v>
       </c>
@@ -2587,7 +2624,7 @@
     </row>
     <row r="47" spans="1:8" s="41" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A47" s="47"/>
-      <c r="B47" s="100"/>
+      <c r="B47" s="95"/>
       <c r="C47" s="48" t="s">
         <v>224</v>
       </c>
@@ -2601,7 +2638,7 @@
     </row>
     <row r="48" spans="1:8" s="41" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A48" s="47"/>
-      <c r="B48" s="100"/>
+      <c r="B48" s="95"/>
       <c r="C48" s="48" t="s">
         <v>222</v>
       </c>
@@ -2615,7 +2652,7 @@
     </row>
     <row r="49" spans="1:8" s="41" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A49" s="47"/>
-      <c r="B49" s="100"/>
+      <c r="B49" s="95"/>
       <c r="C49" s="48" t="s">
         <v>220</v>
       </c>
@@ -2629,7 +2666,7 @@
     </row>
     <row r="50" spans="1:8" s="41" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A50" s="47"/>
-      <c r="B50" s="100"/>
+      <c r="B50" s="95"/>
       <c r="C50" s="48" t="s">
         <v>218</v>
       </c>
@@ -2643,7 +2680,7 @@
     </row>
     <row r="51" spans="1:8" s="41" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A51" s="47"/>
-      <c r="B51" s="100"/>
+      <c r="B51" s="95"/>
       <c r="C51" s="48" t="s">
         <v>216</v>
       </c>
@@ -2657,7 +2694,7 @@
     </row>
     <row r="52" spans="1:8" s="41" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A52" s="47"/>
-      <c r="B52" s="100"/>
+      <c r="B52" s="95"/>
       <c r="C52" s="48" t="s">
         <v>214</v>
       </c>
@@ -2671,7 +2708,7 @@
     </row>
     <row r="53" spans="1:8" s="41" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A53" s="47"/>
-      <c r="B53" s="100"/>
+      <c r="B53" s="95"/>
       <c r="C53" s="48" t="s">
         <v>213</v>
       </c>
@@ -2685,7 +2722,7 @@
     </row>
     <row r="54" spans="1:8" s="41" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A54" s="47"/>
-      <c r="B54" s="100"/>
+      <c r="B54" s="95"/>
       <c r="C54" s="48" t="s">
         <v>211</v>
       </c>
@@ -2699,7 +2736,7 @@
     </row>
     <row r="55" spans="1:8" s="41" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A55" s="47"/>
-      <c r="B55" s="100"/>
+      <c r="B55" s="95"/>
       <c r="C55" s="48" t="s">
         <v>209</v>
       </c>
@@ -2713,7 +2750,7 @@
     </row>
     <row r="56" spans="1:8" s="41" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A56" s="47"/>
-      <c r="B56" s="100"/>
+      <c r="B56" s="95"/>
       <c r="C56" s="48" t="s">
         <v>207</v>
       </c>
@@ -2727,7 +2764,7 @@
     </row>
     <row r="57" spans="1:8" s="41" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A57" s="47"/>
-      <c r="B57" s="100"/>
+      <c r="B57" s="95"/>
       <c r="C57" s="48" t="s">
         <v>205</v>
       </c>
@@ -2741,7 +2778,7 @@
     </row>
     <row r="58" spans="1:8" s="41" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A58" s="47"/>
-      <c r="B58" s="100"/>
+      <c r="B58" s="95"/>
       <c r="C58" s="48" t="s">
         <v>203</v>
       </c>
@@ -2755,7 +2792,7 @@
     </row>
     <row r="59" spans="1:8" s="41" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A59" s="47"/>
-      <c r="B59" s="100"/>
+      <c r="B59" s="95"/>
       <c r="C59" s="48" t="s">
         <v>201</v>
       </c>
@@ -2769,7 +2806,7 @@
     </row>
     <row r="60" spans="1:8" s="41" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A60" s="47"/>
-      <c r="B60" s="100"/>
+      <c r="B60" s="95"/>
       <c r="C60" s="48" t="s">
         <v>199</v>
       </c>
@@ -2783,7 +2820,7 @@
     </row>
     <row r="61" spans="1:8" s="41" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A61" s="47"/>
-      <c r="B61" s="100"/>
+      <c r="B61" s="95"/>
       <c r="C61" s="48" t="s">
         <v>198</v>
       </c>
@@ -2797,7 +2834,7 @@
     </row>
     <row r="62" spans="1:8" s="41" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A62" s="47"/>
-      <c r="B62" s="100"/>
+      <c r="B62" s="95"/>
       <c r="C62" s="48" t="s">
         <v>197</v>
       </c>
@@ -2811,7 +2848,7 @@
     </row>
     <row r="63" spans="1:8" s="41" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A63" s="47"/>
-      <c r="B63" s="100"/>
+      <c r="B63" s="95"/>
       <c r="C63" s="48" t="s">
         <v>196</v>
       </c>
@@ -2825,7 +2862,7 @@
     </row>
     <row r="64" spans="1:8" s="41" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A64" s="47"/>
-      <c r="B64" s="100"/>
+      <c r="B64" s="95"/>
       <c r="C64" s="48" t="s">
         <v>195</v>
       </c>
@@ -2839,7 +2876,7 @@
     </row>
     <row r="65" spans="1:8" s="41" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A65" s="47"/>
-      <c r="B65" s="100"/>
+      <c r="B65" s="95"/>
       <c r="C65" s="48" t="s">
         <v>193</v>
       </c>
@@ -2853,7 +2890,7 @@
     </row>
     <row r="66" spans="1:8" s="41" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A66" s="47"/>
-      <c r="B66" s="100"/>
+      <c r="B66" s="95"/>
       <c r="C66" s="48" t="s">
         <v>190</v>
       </c>
@@ -2867,7 +2904,7 @@
     </row>
     <row r="67" spans="1:8" s="41" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A67" s="47"/>
-      <c r="B67" s="100"/>
+      <c r="B67" s="95"/>
       <c r="C67" s="48" t="s">
         <v>188</v>
       </c>
@@ -2881,7 +2918,7 @@
     </row>
     <row r="68" spans="1:8" s="41" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A68" s="47"/>
-      <c r="B68" s="100"/>
+      <c r="B68" s="95"/>
       <c r="C68" s="48" t="s">
         <v>181</v>
       </c>
@@ -2895,7 +2932,7 @@
     </row>
     <row r="69" spans="1:8" s="41" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A69" s="47"/>
-      <c r="B69" s="100"/>
+      <c r="B69" s="95"/>
       <c r="C69" s="43" t="s">
         <v>182</v>
       </c>
@@ -2909,7 +2946,7 @@
     </row>
     <row r="70" spans="1:8" s="41" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A70" s="47"/>
-      <c r="B70" s="100"/>
+      <c r="B70" s="95"/>
       <c r="C70" s="48" t="s">
         <v>183</v>
       </c>
@@ -2923,7 +2960,7 @@
     </row>
     <row r="71" spans="1:8" s="41" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A71" s="47"/>
-      <c r="B71" s="100"/>
+      <c r="B71" s="95"/>
       <c r="C71" s="48" t="s">
         <v>184</v>
       </c>
@@ -2984,323 +3021,323 @@
       <c r="H75" s="19"/>
     </row>
     <row r="76" spans="1:8" ht="13.5" collapsed="1">
-      <c r="B76" s="111" t="s">
+      <c r="B76" s="115" t="s">
         <v>174</v>
       </c>
-      <c r="C76" s="111"/>
-      <c r="D76" s="111"/>
-      <c r="E76" s="111"/>
-      <c r="F76" s="111"/>
+      <c r="C76" s="115"/>
+      <c r="D76" s="115"/>
+      <c r="E76" s="115"/>
+      <c r="F76" s="115"/>
     </row>
     <row r="77" spans="1:8" s="41" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B77" s="115" t="s">
+      <c r="B77" s="97" t="s">
         <v>180</v>
       </c>
       <c r="C77" s="48" t="s">
         <v>231</v>
       </c>
-      <c r="D77" s="93" t="b">
+      <c r="D77" s="106" t="b">
         <v>1</v>
       </c>
-      <c r="E77" s="109"/>
-      <c r="F77" s="94"/>
+      <c r="E77" s="107"/>
+      <c r="F77" s="108"/>
     </row>
     <row r="78" spans="1:8" s="41" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B78" s="113"/>
+      <c r="B78" s="98"/>
       <c r="C78" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="D78" s="93" t="b">
+      <c r="D78" s="106" t="b">
         <v>1</v>
       </c>
-      <c r="E78" s="109"/>
-      <c r="F78" s="94"/>
+      <c r="E78" s="107"/>
+      <c r="F78" s="108"/>
     </row>
     <row r="79" spans="1:8" s="41" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B79" s="113"/>
+      <c r="B79" s="98"/>
       <c r="C79" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="D79" s="93" t="s">
+      <c r="D79" s="106" t="s">
         <v>228</v>
       </c>
-      <c r="E79" s="109"/>
-      <c r="F79" s="94"/>
+      <c r="E79" s="107"/>
+      <c r="F79" s="108"/>
     </row>
     <row r="80" spans="1:8" s="41" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B80" s="113"/>
+      <c r="B80" s="98"/>
       <c r="C80" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="D80" s="93" t="b">
+      <c r="D80" s="106" t="b">
         <v>1</v>
       </c>
-      <c r="E80" s="109"/>
-      <c r="F80" s="94"/>
+      <c r="E80" s="107"/>
+      <c r="F80" s="108"/>
     </row>
     <row r="81" spans="2:6" s="41" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B81" s="113"/>
+      <c r="B81" s="98"/>
       <c r="C81" s="48" t="s">
         <v>222</v>
       </c>
-      <c r="D81" s="93" t="s">
+      <c r="D81" s="106" t="s">
         <v>223</v>
       </c>
-      <c r="E81" s="109"/>
-      <c r="F81" s="94"/>
+      <c r="E81" s="107"/>
+      <c r="F81" s="108"/>
     </row>
     <row r="82" spans="2:6" s="41" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B82" s="113"/>
+      <c r="B82" s="98"/>
       <c r="C82" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="D82" s="93" t="s">
+      <c r="D82" s="106" t="s">
         <v>240</v>
       </c>
-      <c r="E82" s="109"/>
-      <c r="F82" s="94"/>
+      <c r="E82" s="107"/>
+      <c r="F82" s="108"/>
     </row>
     <row r="83" spans="2:6" s="41" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B83" s="113"/>
+      <c r="B83" s="98"/>
       <c r="C83" s="48" t="s">
         <v>218</v>
       </c>
-      <c r="D83" s="93" t="s">
+      <c r="D83" s="106" t="s">
         <v>219</v>
       </c>
-      <c r="E83" s="109"/>
-      <c r="F83" s="94"/>
+      <c r="E83" s="107"/>
+      <c r="F83" s="108"/>
     </row>
     <row r="84" spans="2:6" s="41" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B84" s="113"/>
+      <c r="B84" s="98"/>
       <c r="C84" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="D84" s="93" t="s">
+      <c r="D84" s="106" t="s">
         <v>217</v>
       </c>
-      <c r="E84" s="109"/>
-      <c r="F84" s="94"/>
+      <c r="E84" s="107"/>
+      <c r="F84" s="108"/>
     </row>
     <row r="85" spans="2:6" s="41" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B85" s="113"/>
+      <c r="B85" s="98"/>
       <c r="C85" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="D85" s="93" t="s">
+      <c r="D85" s="106" t="s">
         <v>215</v>
       </c>
-      <c r="E85" s="109"/>
-      <c r="F85" s="94"/>
+      <c r="E85" s="107"/>
+      <c r="F85" s="108"/>
     </row>
     <row r="86" spans="2:6" s="41" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B86" s="113"/>
+      <c r="B86" s="98"/>
       <c r="C86" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="D86" s="93" t="s">
+      <c r="D86" s="106" t="s">
         <v>232</v>
       </c>
-      <c r="E86" s="109"/>
-      <c r="F86" s="94"/>
+      <c r="E86" s="107"/>
+      <c r="F86" s="108"/>
     </row>
     <row r="87" spans="2:6" s="41" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B87" s="113"/>
+      <c r="B87" s="98"/>
       <c r="C87" s="48" t="s">
         <v>211</v>
       </c>
-      <c r="D87" s="93" t="s">
+      <c r="D87" s="106" t="s">
         <v>212</v>
       </c>
-      <c r="E87" s="109"/>
-      <c r="F87" s="94"/>
+      <c r="E87" s="107"/>
+      <c r="F87" s="108"/>
     </row>
     <row r="88" spans="2:6" s="41" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B88" s="113"/>
+      <c r="B88" s="98"/>
       <c r="C88" s="48" t="s">
         <v>209</v>
       </c>
-      <c r="D88" s="93" t="s">
+      <c r="D88" s="106" t="s">
         <v>210</v>
       </c>
-      <c r="E88" s="109"/>
-      <c r="F88" s="94"/>
+      <c r="E88" s="107"/>
+      <c r="F88" s="108"/>
     </row>
     <row r="89" spans="2:6" s="41" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B89" s="113"/>
+      <c r="B89" s="98"/>
       <c r="C89" s="48" t="s">
         <v>207</v>
       </c>
-      <c r="D89" s="93" t="s">
+      <c r="D89" s="106" t="s">
         <v>208</v>
       </c>
-      <c r="E89" s="109"/>
-      <c r="F89" s="94"/>
+      <c r="E89" s="107"/>
+      <c r="F89" s="108"/>
     </row>
     <row r="90" spans="2:6" s="41" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B90" s="113"/>
+      <c r="B90" s="98"/>
       <c r="C90" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="D90" s="93" t="s">
+      <c r="D90" s="106" t="s">
         <v>206</v>
       </c>
-      <c r="E90" s="109"/>
-      <c r="F90" s="94"/>
+      <c r="E90" s="107"/>
+      <c r="F90" s="108"/>
     </row>
     <row r="91" spans="2:6" s="41" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B91" s="113"/>
+      <c r="B91" s="98"/>
       <c r="C91" s="48" t="s">
         <v>203</v>
       </c>
-      <c r="D91" s="93" t="s">
+      <c r="D91" s="106" t="s">
         <v>204</v>
       </c>
-      <c r="E91" s="109"/>
-      <c r="F91" s="94"/>
+      <c r="E91" s="107"/>
+      <c r="F91" s="108"/>
     </row>
     <row r="92" spans="2:6" s="41" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B92" s="113"/>
+      <c r="B92" s="98"/>
       <c r="C92" s="48" t="s">
         <v>201</v>
       </c>
-      <c r="D92" s="93" t="s">
+      <c r="D92" s="106" t="s">
         <v>202</v>
       </c>
-      <c r="E92" s="109"/>
-      <c r="F92" s="94"/>
+      <c r="E92" s="107"/>
+      <c r="F92" s="108"/>
     </row>
     <row r="93" spans="2:6" s="41" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B93" s="113"/>
+      <c r="B93" s="98"/>
       <c r="C93" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="D93" s="93" t="s">
+      <c r="D93" s="106" t="s">
         <v>200</v>
       </c>
-      <c r="E93" s="109"/>
-      <c r="F93" s="94"/>
+      <c r="E93" s="107"/>
+      <c r="F93" s="108"/>
     </row>
     <row r="94" spans="2:6" s="41" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B94" s="113"/>
+      <c r="B94" s="98"/>
       <c r="C94" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="D94" s="93">
+      <c r="D94" s="106">
         <v>41298</v>
       </c>
-      <c r="E94" s="109"/>
-      <c r="F94" s="94"/>
+      <c r="E94" s="107"/>
+      <c r="F94" s="108"/>
     </row>
     <row r="95" spans="2:6" s="41" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B95" s="113"/>
+      <c r="B95" s="98"/>
       <c r="C95" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="D95" s="93">
+      <c r="D95" s="106">
         <v>41275</v>
       </c>
-      <c r="E95" s="109"/>
-      <c r="F95" s="94"/>
+      <c r="E95" s="107"/>
+      <c r="F95" s="108"/>
     </row>
     <row r="96" spans="2:6" s="41" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B96" s="113"/>
+      <c r="B96" s="98"/>
       <c r="C96" s="48" t="s">
         <v>196</v>
       </c>
-      <c r="D96" s="93">
+      <c r="D96" s="106">
         <v>41670</v>
       </c>
-      <c r="E96" s="109"/>
-      <c r="F96" s="94"/>
+      <c r="E96" s="107"/>
+      <c r="F96" s="108"/>
     </row>
     <row r="97" spans="2:6" s="41" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B97" s="113"/>
+      <c r="B97" s="98"/>
       <c r="C97" s="48" t="s">
         <v>195</v>
       </c>
-      <c r="D97" s="93">
+      <c r="D97" s="106">
         <v>41646</v>
       </c>
-      <c r="E97" s="109"/>
-      <c r="F97" s="94"/>
+      <c r="E97" s="107"/>
+      <c r="F97" s="108"/>
     </row>
     <row r="98" spans="2:6" s="41" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B98" s="113"/>
+      <c r="B98" s="98"/>
       <c r="C98" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="D98" s="95" t="s">
+      <c r="D98" s="103" t="s">
         <v>194</v>
       </c>
-      <c r="E98" s="119"/>
-      <c r="F98" s="96"/>
+      <c r="E98" s="111"/>
+      <c r="F98" s="112"/>
     </row>
     <row r="99" spans="2:6" s="41" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B99" s="113"/>
+      <c r="B99" s="98"/>
       <c r="C99" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="D99" s="95" t="s">
+      <c r="D99" s="103" t="s">
         <v>191</v>
       </c>
-      <c r="E99" s="119"/>
-      <c r="F99" s="96"/>
+      <c r="E99" s="111"/>
+      <c r="F99" s="112"/>
     </row>
     <row r="100" spans="2:6" s="41" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B100" s="113"/>
+      <c r="B100" s="98"/>
       <c r="C100" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="D100" s="95" t="s">
+      <c r="D100" s="103" t="s">
         <v>189</v>
       </c>
-      <c r="E100" s="119"/>
-      <c r="F100" s="96"/>
+      <c r="E100" s="111"/>
+      <c r="F100" s="112"/>
     </row>
     <row r="101" spans="2:6" s="41" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B101" s="113"/>
+      <c r="B101" s="98"/>
       <c r="C101" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="D101" s="95" t="s">
+      <c r="D101" s="103" t="s">
         <v>192</v>
       </c>
-      <c r="E101" s="119"/>
-      <c r="F101" s="96"/>
+      <c r="E101" s="111"/>
+      <c r="F101" s="112"/>
     </row>
     <row r="102" spans="2:6" s="41" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B102" s="113"/>
+      <c r="B102" s="98"/>
       <c r="C102" s="43" t="s">
         <v>182</v>
       </c>
-      <c r="D102" s="95" t="s">
+      <c r="D102" s="103" t="s">
         <v>187</v>
       </c>
-      <c r="E102" s="119"/>
-      <c r="F102" s="96"/>
+      <c r="E102" s="111"/>
+      <c r="F102" s="112"/>
     </row>
     <row r="103" spans="2:6" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B103" s="113"/>
+      <c r="B103" s="98"/>
       <c r="C103" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="D103" s="93">
+      <c r="D103" s="106">
         <v>41648</v>
       </c>
-      <c r="E103" s="109"/>
-      <c r="F103" s="94"/>
+      <c r="E103" s="107"/>
+      <c r="F103" s="108"/>
     </row>
     <row r="104" spans="2:6" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B104" s="116"/>
+      <c r="B104" s="105"/>
       <c r="C104" s="48" t="s">
         <v>184</v>
       </c>
-      <c r="D104" s="93">
+      <c r="D104" s="106">
         <v>40919</v>
       </c>
-      <c r="E104" s="109"/>
-      <c r="F104" s="94"/>
+      <c r="E104" s="107"/>
+      <c r="F104" s="108"/>
     </row>
     <row r="105" spans="2:6" ht="13.5" hidden="1" outlineLevel="1">
       <c r="B105" s="20" t="s">
@@ -3470,14 +3507,14 @@
       </c>
     </row>
     <row r="120" spans="2:6" collapsed="1">
-      <c r="B120" s="120" t="s">
+      <c r="B120" s="113" t="s">
         <v>177</v>
       </c>
-      <c r="C120" s="120"/>
-      <c r="D120" s="120"/>
+      <c r="C120" s="113"/>
+      <c r="D120" s="113"/>
     </row>
     <row r="121" spans="2:6" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B121" s="115" t="s">
+      <c r="B121" s="97" t="s">
         <v>180</v>
       </c>
       <c r="C121" s="48" t="s">
@@ -3488,7 +3525,7 @@
       </c>
     </row>
     <row r="122" spans="2:6" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B122" s="113"/>
+      <c r="B122" s="98"/>
       <c r="C122" s="48" t="s">
         <v>230</v>
       </c>
@@ -3497,7 +3534,7 @@
       </c>
     </row>
     <row r="123" spans="2:6" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B123" s="113"/>
+      <c r="B123" s="98"/>
       <c r="C123" s="48" t="s">
         <v>227</v>
       </c>
@@ -3506,7 +3543,7 @@
       </c>
     </row>
     <row r="124" spans="2:6" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B124" s="113"/>
+      <c r="B124" s="98"/>
       <c r="C124" s="48" t="s">
         <v>226</v>
       </c>
@@ -3515,7 +3552,7 @@
       </c>
     </row>
     <row r="125" spans="2:6" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B125" s="113"/>
+      <c r="B125" s="98"/>
       <c r="C125" s="48" t="s">
         <v>222</v>
       </c>
@@ -3524,7 +3561,7 @@
       </c>
     </row>
     <row r="126" spans="2:6" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B126" s="113"/>
+      <c r="B126" s="98"/>
       <c r="C126" s="48" t="s">
         <v>220</v>
       </c>
@@ -3533,7 +3570,7 @@
       </c>
     </row>
     <row r="127" spans="2:6" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B127" s="113"/>
+      <c r="B127" s="98"/>
       <c r="C127" s="48" t="s">
         <v>218</v>
       </c>
@@ -3542,7 +3579,7 @@
       </c>
     </row>
     <row r="128" spans="2:6" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B128" s="113"/>
+      <c r="B128" s="98"/>
       <c r="C128" s="48" t="s">
         <v>216</v>
       </c>
@@ -3551,7 +3588,7 @@
       </c>
     </row>
     <row r="129" spans="2:4" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B129" s="113"/>
+      <c r="B129" s="98"/>
       <c r="C129" s="48" t="s">
         <v>214</v>
       </c>
@@ -3560,7 +3597,7 @@
       </c>
     </row>
     <row r="130" spans="2:4" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B130" s="113"/>
+      <c r="B130" s="98"/>
       <c r="C130" s="48" t="s">
         <v>213</v>
       </c>
@@ -3569,7 +3606,7 @@
       </c>
     </row>
     <row r="131" spans="2:4" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B131" s="113"/>
+      <c r="B131" s="98"/>
       <c r="C131" s="48" t="s">
         <v>211</v>
       </c>
@@ -3578,7 +3615,7 @@
       </c>
     </row>
     <row r="132" spans="2:4" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B132" s="113"/>
+      <c r="B132" s="98"/>
       <c r="C132" s="48" t="s">
         <v>209</v>
       </c>
@@ -3587,7 +3624,7 @@
       </c>
     </row>
     <row r="133" spans="2:4" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B133" s="113"/>
+      <c r="B133" s="98"/>
       <c r="C133" s="48" t="s">
         <v>207</v>
       </c>
@@ -3596,7 +3633,7 @@
       </c>
     </row>
     <row r="134" spans="2:4" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B134" s="113"/>
+      <c r="B134" s="98"/>
       <c r="C134" s="48" t="s">
         <v>205</v>
       </c>
@@ -3605,7 +3642,7 @@
       </c>
     </row>
     <row r="135" spans="2:4" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B135" s="113"/>
+      <c r="B135" s="98"/>
       <c r="C135" s="48" t="s">
         <v>203</v>
       </c>
@@ -3614,7 +3651,7 @@
       </c>
     </row>
     <row r="136" spans="2:4" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B136" s="113"/>
+      <c r="B136" s="98"/>
       <c r="C136" s="48" t="s">
         <v>201</v>
       </c>
@@ -3623,7 +3660,7 @@
       </c>
     </row>
     <row r="137" spans="2:4" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B137" s="113"/>
+      <c r="B137" s="98"/>
       <c r="C137" s="48" t="s">
         <v>199</v>
       </c>
@@ -3632,7 +3669,7 @@
       </c>
     </row>
     <row r="138" spans="2:4" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B138" s="113"/>
+      <c r="B138" s="98"/>
       <c r="C138" s="48" t="s">
         <v>198</v>
       </c>
@@ -3641,7 +3678,7 @@
       </c>
     </row>
     <row r="139" spans="2:4" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B139" s="113"/>
+      <c r="B139" s="98"/>
       <c r="C139" s="48" t="s">
         <v>197</v>
       </c>
@@ -3650,7 +3687,7 @@
       </c>
     </row>
     <row r="140" spans="2:4" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B140" s="113"/>
+      <c r="B140" s="98"/>
       <c r="C140" s="48" t="s">
         <v>196</v>
       </c>
@@ -3659,7 +3696,7 @@
       </c>
     </row>
     <row r="141" spans="2:4" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B141" s="113"/>
+      <c r="B141" s="98"/>
       <c r="C141" s="48" t="s">
         <v>195</v>
       </c>
@@ -3668,7 +3705,7 @@
       </c>
     </row>
     <row r="142" spans="2:4" hidden="1" outlineLevel="1">
-      <c r="B142" s="113"/>
+      <c r="B142" s="98"/>
       <c r="C142" s="48" t="s">
         <v>193</v>
       </c>
@@ -3677,7 +3714,7 @@
       </c>
     </row>
     <row r="143" spans="2:4" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B143" s="113"/>
+      <c r="B143" s="98"/>
       <c r="C143" s="48" t="s">
         <v>190</v>
       </c>
@@ -3686,7 +3723,7 @@
       </c>
     </row>
     <row r="144" spans="2:4" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B144" s="113"/>
+      <c r="B144" s="98"/>
       <c r="C144" s="48" t="s">
         <v>188</v>
       </c>
@@ -3695,7 +3732,7 @@
       </c>
     </row>
     <row r="145" spans="2:4" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B145" s="113"/>
+      <c r="B145" s="98"/>
       <c r="C145" s="48" t="s">
         <v>181</v>
       </c>
@@ -3704,7 +3741,7 @@
       </c>
     </row>
     <row r="146" spans="2:4" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B146" s="113"/>
+      <c r="B146" s="98"/>
       <c r="C146" s="43" t="s">
         <v>182</v>
       </c>
@@ -3713,7 +3750,7 @@
       </c>
     </row>
     <row r="147" spans="2:4" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B147" s="113"/>
+      <c r="B147" s="98"/>
       <c r="C147" s="48" t="s">
         <v>183</v>
       </c>
@@ -3722,7 +3759,7 @@
       </c>
     </row>
     <row r="148" spans="2:4" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B148" s="116"/>
+      <c r="B148" s="105"/>
       <c r="C148" s="48" t="s">
         <v>184</v>
       </c>
@@ -3738,14 +3775,14 @@
       <c r="D149" s="43"/>
     </row>
     <row r="151" spans="2:4" collapsed="1">
-      <c r="B151" s="117" t="s">
+      <c r="B151" s="109" t="s">
         <v>173</v>
       </c>
-      <c r="C151" s="117"/>
-      <c r="D151" s="117"/>
+      <c r="C151" s="109"/>
+      <c r="D151" s="109"/>
     </row>
     <row r="152" spans="2:4" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B152" s="100" t="s">
+      <c r="B152" s="95" t="s">
         <v>180</v>
       </c>
       <c r="C152" s="48" t="s">
@@ -3756,7 +3793,7 @@
       </c>
     </row>
     <row r="153" spans="2:4" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B153" s="100"/>
+      <c r="B153" s="95"/>
       <c r="C153" s="48" t="s">
         <v>193</v>
       </c>
@@ -3765,7 +3802,7 @@
       </c>
     </row>
     <row r="154" spans="2:4" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B154" s="100"/>
+      <c r="B154" s="95"/>
       <c r="C154" s="48" t="s">
         <v>190</v>
       </c>
@@ -3774,7 +3811,7 @@
       </c>
     </row>
     <row r="155" spans="2:4" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B155" s="100"/>
+      <c r="B155" s="95"/>
       <c r="C155" s="48" t="s">
         <v>188</v>
       </c>
@@ -3783,7 +3820,7 @@
       </c>
     </row>
     <row r="156" spans="2:4" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B156" s="100"/>
+      <c r="B156" s="95"/>
       <c r="C156" s="48" t="s">
         <v>181</v>
       </c>
@@ -3792,7 +3829,7 @@
       </c>
     </row>
     <row r="157" spans="2:4" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B157" s="100"/>
+      <c r="B157" s="95"/>
       <c r="C157" s="43" t="s">
         <v>182</v>
       </c>
@@ -3801,7 +3838,7 @@
       </c>
     </row>
     <row r="158" spans="2:4" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B158" s="100"/>
+      <c r="B158" s="95"/>
       <c r="C158" s="48" t="s">
         <v>183</v>
       </c>
@@ -3810,7 +3847,7 @@
       </c>
     </row>
     <row r="159" spans="2:4" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B159" s="100"/>
+      <c r="B159" s="95"/>
       <c r="C159" s="48" t="s">
         <v>184</v>
       </c>
@@ -3819,315 +3856,315 @@
       </c>
     </row>
     <row r="160" spans="2:4" hidden="1" outlineLevel="1">
-      <c r="B160" s="118" t="s">
+      <c r="B160" s="110" t="s">
         <v>112</v>
       </c>
-      <c r="C160" s="118"/>
-      <c r="D160" s="118"/>
+      <c r="C160" s="110"/>
+      <c r="D160" s="110"/>
     </row>
     <row r="161" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="B161" s="118" t="s">
+      <c r="B161" s="110" t="s">
         <v>113</v>
       </c>
-      <c r="C161" s="118"/>
-      <c r="D161" s="118"/>
+      <c r="C161" s="110"/>
+      <c r="D161" s="110"/>
     </row>
     <row r="162" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="B162" s="118" t="s">
+      <c r="B162" s="110" t="s">
         <v>52</v>
       </c>
-      <c r="C162" s="118"/>
-      <c r="D162" s="118"/>
+      <c r="C162" s="110"/>
+      <c r="D162" s="110"/>
     </row>
     <row r="165" spans="2:5" collapsed="1">
-      <c r="B165" s="112" t="s">
+      <c r="B165" s="116" t="s">
         <v>176</v>
       </c>
-      <c r="C165" s="112"/>
-      <c r="D165" s="112"/>
-      <c r="E165" s="112"/>
+      <c r="C165" s="116"/>
+      <c r="D165" s="116"/>
+      <c r="E165" s="116"/>
     </row>
     <row r="166" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B166" s="100" t="s">
+      <c r="B166" s="95" t="s">
         <v>180</v>
       </c>
       <c r="C166" s="48" t="s">
         <v>231</v>
       </c>
-      <c r="D166" s="93" t="b">
+      <c r="D166" s="106" t="b">
         <v>1</v>
       </c>
-      <c r="E166" s="94"/>
+      <c r="E166" s="108"/>
     </row>
     <row r="167" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B167" s="100"/>
+      <c r="B167" s="95"/>
       <c r="C167" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="D167" s="93" t="b">
+      <c r="D167" s="106" t="b">
         <v>1</v>
       </c>
-      <c r="E167" s="94"/>
+      <c r="E167" s="108"/>
     </row>
     <row r="168" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B168" s="100"/>
+      <c r="B168" s="95"/>
       <c r="C168" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="D168" s="93" t="s">
+      <c r="D168" s="106" t="s">
         <v>228</v>
       </c>
-      <c r="E168" s="94"/>
+      <c r="E168" s="108"/>
     </row>
     <row r="169" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B169" s="100"/>
+      <c r="B169" s="95"/>
       <c r="C169" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="D169" s="93" t="b">
+      <c r="D169" s="106" t="b">
         <v>1</v>
       </c>
-      <c r="E169" s="94"/>
+      <c r="E169" s="108"/>
     </row>
     <row r="170" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B170" s="100"/>
+      <c r="B170" s="95"/>
       <c r="C170" s="48" t="s">
         <v>222</v>
       </c>
-      <c r="D170" s="93" t="s">
+      <c r="D170" s="106" t="s">
         <v>223</v>
       </c>
-      <c r="E170" s="94"/>
+      <c r="E170" s="108"/>
     </row>
     <row r="171" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B171" s="100"/>
+      <c r="B171" s="95"/>
       <c r="C171" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="D171" s="93" t="s">
+      <c r="D171" s="106" t="s">
         <v>243</v>
       </c>
-      <c r="E171" s="94"/>
+      <c r="E171" s="108"/>
     </row>
     <row r="172" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B172" s="100"/>
+      <c r="B172" s="95"/>
       <c r="C172" s="48" t="s">
         <v>218</v>
       </c>
-      <c r="D172" s="93" t="s">
+      <c r="D172" s="106" t="s">
         <v>219</v>
       </c>
-      <c r="E172" s="94"/>
+      <c r="E172" s="108"/>
     </row>
     <row r="173" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B173" s="100"/>
+      <c r="B173" s="95"/>
       <c r="C173" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="D173" s="93" t="s">
+      <c r="D173" s="106" t="s">
         <v>217</v>
       </c>
-      <c r="E173" s="94"/>
+      <c r="E173" s="108"/>
     </row>
     <row r="174" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B174" s="100"/>
+      <c r="B174" s="95"/>
       <c r="C174" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="D174" s="93" t="s">
+      <c r="D174" s="106" t="s">
         <v>215</v>
       </c>
-      <c r="E174" s="94"/>
+      <c r="E174" s="108"/>
     </row>
     <row r="175" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B175" s="100"/>
+      <c r="B175" s="95"/>
       <c r="C175" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="D175" s="93" t="s">
+      <c r="D175" s="106" t="s">
         <v>232</v>
       </c>
-      <c r="E175" s="94"/>
+      <c r="E175" s="108"/>
     </row>
     <row r="176" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B176" s="100"/>
+      <c r="B176" s="95"/>
       <c r="C176" s="48" t="s">
         <v>211</v>
       </c>
-      <c r="D176" s="93" t="s">
+      <c r="D176" s="106" t="s">
         <v>212</v>
       </c>
-      <c r="E176" s="94"/>
+      <c r="E176" s="108"/>
     </row>
     <row r="177" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B177" s="100"/>
+      <c r="B177" s="95"/>
       <c r="C177" s="48" t="s">
         <v>209</v>
       </c>
-      <c r="D177" s="93" t="s">
+      <c r="D177" s="106" t="s">
         <v>210</v>
       </c>
-      <c r="E177" s="94"/>
+      <c r="E177" s="108"/>
     </row>
     <row r="178" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B178" s="100"/>
+      <c r="B178" s="95"/>
       <c r="C178" s="48" t="s">
         <v>207</v>
       </c>
-      <c r="D178" s="93" t="s">
+      <c r="D178" s="106" t="s">
         <v>208</v>
       </c>
-      <c r="E178" s="94"/>
+      <c r="E178" s="108"/>
     </row>
     <row r="179" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B179" s="100"/>
+      <c r="B179" s="95"/>
       <c r="C179" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="D179" s="93" t="s">
+      <c r="D179" s="106" t="s">
         <v>206</v>
       </c>
-      <c r="E179" s="94"/>
+      <c r="E179" s="108"/>
     </row>
     <row r="180" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B180" s="100"/>
+      <c r="B180" s="95"/>
       <c r="C180" s="48" t="s">
         <v>203</v>
       </c>
-      <c r="D180" s="93" t="s">
+      <c r="D180" s="106" t="s">
         <v>204</v>
       </c>
-      <c r="E180" s="94"/>
+      <c r="E180" s="108"/>
     </row>
     <row r="181" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B181" s="100"/>
+      <c r="B181" s="95"/>
       <c r="C181" s="48" t="s">
         <v>201</v>
       </c>
-      <c r="D181" s="93" t="s">
+      <c r="D181" s="106" t="s">
         <v>202</v>
       </c>
-      <c r="E181" s="94"/>
+      <c r="E181" s="108"/>
     </row>
     <row r="182" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B182" s="100"/>
+      <c r="B182" s="95"/>
       <c r="C182" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="D182" s="93" t="s">
+      <c r="D182" s="106" t="s">
         <v>200</v>
       </c>
-      <c r="E182" s="94"/>
+      <c r="E182" s="108"/>
     </row>
     <row r="183" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B183" s="100"/>
+      <c r="B183" s="95"/>
       <c r="C183" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="D183" s="93">
+      <c r="D183" s="106">
         <v>41298</v>
       </c>
-      <c r="E183" s="94"/>
+      <c r="E183" s="108"/>
     </row>
     <row r="184" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B184" s="100"/>
+      <c r="B184" s="95"/>
       <c r="C184" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="D184" s="93">
+      <c r="D184" s="106">
         <v>41275</v>
       </c>
-      <c r="E184" s="94"/>
+      <c r="E184" s="108"/>
     </row>
     <row r="185" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B185" s="100"/>
+      <c r="B185" s="95"/>
       <c r="C185" s="48" t="s">
         <v>196</v>
       </c>
-      <c r="D185" s="93">
+      <c r="D185" s="106">
         <v>41670</v>
       </c>
-      <c r="E185" s="94"/>
+      <c r="E185" s="108"/>
     </row>
     <row r="186" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B186" s="100"/>
+      <c r="B186" s="95"/>
       <c r="C186" s="48" t="s">
         <v>195</v>
       </c>
-      <c r="D186" s="93">
+      <c r="D186" s="106">
         <v>41646</v>
       </c>
-      <c r="E186" s="94"/>
+      <c r="E186" s="108"/>
     </row>
     <row r="187" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B187" s="100"/>
+      <c r="B187" s="95"/>
       <c r="C187" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="D187" s="95" t="s">
+      <c r="D187" s="103" t="s">
         <v>194</v>
       </c>
-      <c r="E187" s="96"/>
+      <c r="E187" s="112"/>
     </row>
     <row r="188" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B188" s="100"/>
+      <c r="B188" s="95"/>
       <c r="C188" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="D188" s="95" t="s">
+      <c r="D188" s="103" t="s">
         <v>191</v>
       </c>
-      <c r="E188" s="96"/>
+      <c r="E188" s="112"/>
     </row>
     <row r="189" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B189" s="100"/>
+      <c r="B189" s="95"/>
       <c r="C189" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="D189" s="95" t="s">
+      <c r="D189" s="103" t="s">
         <v>189</v>
       </c>
-      <c r="E189" s="96"/>
+      <c r="E189" s="112"/>
     </row>
     <row r="190" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B190" s="100"/>
+      <c r="B190" s="95"/>
       <c r="C190" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="D190" s="95" t="s">
+      <c r="D190" s="103" t="s">
         <v>192</v>
       </c>
-      <c r="E190" s="96"/>
+      <c r="E190" s="112"/>
     </row>
     <row r="191" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B191" s="100"/>
+      <c r="B191" s="95"/>
       <c r="C191" s="43" t="s">
         <v>182</v>
       </c>
-      <c r="D191" s="95" t="s">
+      <c r="D191" s="103" t="s">
         <v>187</v>
       </c>
-      <c r="E191" s="96"/>
+      <c r="E191" s="112"/>
     </row>
     <row r="192" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B192" s="100"/>
+      <c r="B192" s="95"/>
       <c r="C192" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="D192" s="93">
+      <c r="D192" s="106">
         <v>41648</v>
       </c>
-      <c r="E192" s="94"/>
+      <c r="E192" s="108"/>
     </row>
     <row r="193" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B193" s="100"/>
+      <c r="B193" s="95"/>
       <c r="C193" s="48" t="s">
         <v>184</v>
       </c>
-      <c r="D193" s="93">
+      <c r="D193" s="106">
         <v>40919</v>
       </c>
-      <c r="E193" s="94"/>
+      <c r="E193" s="108"/>
     </row>
     <row r="194" spans="2:5" hidden="1" outlineLevel="1">
       <c r="B194" s="15" t="s">
@@ -4180,14 +4217,14 @@
       </c>
     </row>
     <row r="200" spans="2:5" collapsed="1">
-      <c r="B200" s="105" t="s">
+      <c r="B200" s="90" t="s">
         <v>172</v>
       </c>
-      <c r="C200" s="106"/>
-      <c r="D200" s="107"/>
+      <c r="C200" s="91"/>
+      <c r="D200" s="92"/>
     </row>
     <row r="201" spans="2:5" s="69" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B201" s="90" t="s">
+      <c r="B201" s="118" t="s">
         <v>180</v>
       </c>
       <c r="C201" s="52" t="s">
@@ -4198,7 +4235,7 @@
       </c>
     </row>
     <row r="202" spans="2:5" s="69" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B202" s="90"/>
+      <c r="B202" s="118"/>
       <c r="C202" s="52" t="s">
         <v>193</v>
       </c>
@@ -4207,7 +4244,7 @@
       </c>
     </row>
     <row r="203" spans="2:5" s="69" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B203" s="90"/>
+      <c r="B203" s="118"/>
       <c r="C203" s="52" t="s">
         <v>190</v>
       </c>
@@ -4216,7 +4253,7 @@
       </c>
     </row>
     <row r="204" spans="2:5" s="69" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B204" s="90"/>
+      <c r="B204" s="118"/>
       <c r="C204" s="52" t="s">
         <v>188</v>
       </c>
@@ -4225,7 +4262,7 @@
       </c>
     </row>
     <row r="205" spans="2:5" s="69" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B205" s="90"/>
+      <c r="B205" s="118"/>
       <c r="C205" s="52" t="s">
         <v>181</v>
       </c>
@@ -4234,7 +4271,7 @@
       </c>
     </row>
     <row r="206" spans="2:5" s="69" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B206" s="90"/>
+      <c r="B206" s="118"/>
       <c r="C206" s="51" t="s">
         <v>182</v>
       </c>
@@ -4243,7 +4280,7 @@
       </c>
     </row>
     <row r="207" spans="2:5" s="69" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B207" s="90"/>
+      <c r="B207" s="118"/>
       <c r="C207" s="52" t="s">
         <v>183</v>
       </c>
@@ -4252,7 +4289,7 @@
       </c>
     </row>
     <row r="208" spans="2:5" s="69" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B208" s="90"/>
+      <c r="B208" s="118"/>
       <c r="C208" s="52" t="s">
         <v>184</v>
       </c>
@@ -4261,7 +4298,7 @@
       </c>
     </row>
     <row r="209" spans="2:4" hidden="1" outlineLevel="1">
-      <c r="B209" s="108"/>
+      <c r="B209" s="88"/>
       <c r="C209" s="49" t="s">
         <v>234</v>
       </c>
@@ -4273,38 +4310,38 @@
       <c r="B210" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C210" s="104" t="s">
+      <c r="C210" s="120" t="s">
         <v>251</v>
       </c>
-      <c r="D210" s="97"/>
+      <c r="D210" s="117"/>
     </row>
     <row r="211" spans="2:4" hidden="1" outlineLevel="1">
       <c r="B211" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C211" s="97" t="s">
+      <c r="C211" s="117" t="s">
         <v>122</v>
       </c>
-      <c r="D211" s="97"/>
+      <c r="D211" s="117"/>
     </row>
     <row r="212" spans="2:4" hidden="1" outlineLevel="1">
       <c r="B212" s="8">
         <v>3</v>
       </c>
-      <c r="C212" s="97">
+      <c r="C212" s="117">
         <v>400</v>
       </c>
-      <c r="D212" s="97"/>
+      <c r="D212" s="117"/>
     </row>
     <row r="215" spans="2:4" collapsed="1">
-      <c r="B215" s="103" t="s">
+      <c r="B215" s="119" t="s">
         <v>170</v>
       </c>
-      <c r="C215" s="103"/>
-      <c r="D215" s="103"/>
+      <c r="C215" s="119"/>
+      <c r="D215" s="119"/>
     </row>
     <row r="216" spans="2:4" s="69" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B216" s="90" t="s">
+      <c r="B216" s="118" t="s">
         <v>180</v>
       </c>
       <c r="C216" s="52" t="s">
@@ -4315,7 +4352,7 @@
       </c>
     </row>
     <row r="217" spans="2:4" s="69" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B217" s="90"/>
+      <c r="B217" s="118"/>
       <c r="C217" s="52" t="s">
         <v>193</v>
       </c>
@@ -4324,7 +4361,7 @@
       </c>
     </row>
     <row r="218" spans="2:4" s="69" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B218" s="90"/>
+      <c r="B218" s="118"/>
       <c r="C218" s="52" t="s">
         <v>190</v>
       </c>
@@ -4333,7 +4370,7 @@
       </c>
     </row>
     <row r="219" spans="2:4" s="69" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B219" s="90"/>
+      <c r="B219" s="118"/>
       <c r="C219" s="52" t="s">
         <v>188</v>
       </c>
@@ -4342,7 +4379,7 @@
       </c>
     </row>
     <row r="220" spans="2:4" s="69" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B220" s="90"/>
+      <c r="B220" s="118"/>
       <c r="C220" s="52" t="s">
         <v>181</v>
       </c>
@@ -4351,7 +4388,7 @@
       </c>
     </row>
     <row r="221" spans="2:4" s="69" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B221" s="90"/>
+      <c r="B221" s="118"/>
       <c r="C221" s="51" t="s">
         <v>182</v>
       </c>
@@ -4360,7 +4397,7 @@
       </c>
     </row>
     <row r="222" spans="2:4" s="69" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B222" s="90"/>
+      <c r="B222" s="118"/>
       <c r="C222" s="52" t="s">
         <v>183</v>
       </c>
@@ -4369,7 +4406,7 @@
       </c>
     </row>
     <row r="223" spans="2:4" s="69" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B223" s="90"/>
+      <c r="B223" s="118"/>
       <c r="C223" s="52" t="s">
         <v>184</v>
       </c>
@@ -4378,7 +4415,7 @@
       </c>
     </row>
     <row r="224" spans="2:4" s="69" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B224" s="108"/>
+      <c r="B224" s="88"/>
       <c r="C224" s="52" t="s">
         <v>239</v>
       </c>
@@ -4390,29 +4427,29 @@
       <c r="B225" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C225" s="103" t="s">
+      <c r="C225" s="119" t="s">
         <v>135</v>
       </c>
-      <c r="D225" s="103"/>
+      <c r="D225" s="119"/>
     </row>
     <row r="226" spans="2:4" hidden="1" outlineLevel="1">
       <c r="B226" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C226" s="103" t="s">
+      <c r="C226" s="119" t="s">
         <v>136</v>
       </c>
-      <c r="D226" s="103"/>
+      <c r="D226" s="119"/>
     </row>
     <row r="228" spans="2:4" collapsed="1">
-      <c r="B228" s="97" t="s">
+      <c r="B228" s="117" t="s">
         <v>169</v>
       </c>
-      <c r="C228" s="97"/>
-      <c r="D228" s="97"/>
+      <c r="C228" s="117"/>
+      <c r="D228" s="117"/>
     </row>
     <row r="229" spans="2:4" hidden="1" outlineLevel="1">
-      <c r="B229" s="108" t="s">
+      <c r="B229" s="88" t="s">
         <v>180</v>
       </c>
       <c r="C229" s="52" t="s">
@@ -4423,7 +4460,7 @@
       </c>
     </row>
     <row r="230" spans="2:4" s="69" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B230" s="90"/>
+      <c r="B230" s="118"/>
       <c r="C230" s="52" t="s">
         <v>193</v>
       </c>
@@ -4432,7 +4469,7 @@
       </c>
     </row>
     <row r="231" spans="2:4" s="69" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B231" s="90"/>
+      <c r="B231" s="118"/>
       <c r="C231" s="52" t="s">
         <v>190</v>
       </c>
@@ -4441,7 +4478,7 @@
       </c>
     </row>
     <row r="232" spans="2:4" s="69" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B232" s="90"/>
+      <c r="B232" s="118"/>
       <c r="C232" s="52" t="s">
         <v>188</v>
       </c>
@@ -4450,7 +4487,7 @@
       </c>
     </row>
     <row r="233" spans="2:4" s="69" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B233" s="90"/>
+      <c r="B233" s="118"/>
       <c r="C233" s="52" t="s">
         <v>181</v>
       </c>
@@ -4459,7 +4496,7 @@
       </c>
     </row>
     <row r="234" spans="2:4" s="69" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B234" s="90"/>
+      <c r="B234" s="118"/>
       <c r="C234" s="51" t="s">
         <v>182</v>
       </c>
@@ -4468,7 +4505,7 @@
       </c>
     </row>
     <row r="235" spans="2:4" s="69" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B235" s="90"/>
+      <c r="B235" s="118"/>
       <c r="C235" s="52" t="s">
         <v>183</v>
       </c>
@@ -4477,7 +4514,7 @@
       </c>
     </row>
     <row r="236" spans="2:4" hidden="1" outlineLevel="1">
-      <c r="B236" s="108"/>
+      <c r="B236" s="88"/>
       <c r="C236" s="52" t="s">
         <v>184</v>
       </c>
@@ -4486,7 +4523,7 @@
       </c>
     </row>
     <row r="237" spans="2:4" hidden="1" outlineLevel="1">
-      <c r="B237" s="108"/>
+      <c r="B237" s="88"/>
       <c r="C237" s="52" t="s">
         <v>239</v>
       </c>
@@ -4495,332 +4532,332 @@
       </c>
     </row>
     <row r="238" spans="2:4" hidden="1" outlineLevel="1">
-      <c r="B238" s="97" t="s">
+      <c r="B238" s="117" t="s">
         <v>137</v>
       </c>
-      <c r="C238" s="97"/>
-      <c r="D238" s="97"/>
+      <c r="C238" s="117"/>
+      <c r="D238" s="117"/>
     </row>
     <row r="239" spans="2:4" hidden="1" outlineLevel="1">
-      <c r="B239" s="97" t="s">
+      <c r="B239" s="117" t="s">
         <v>138</v>
       </c>
-      <c r="C239" s="97"/>
-      <c r="D239" s="97"/>
+      <c r="C239" s="117"/>
+      <c r="D239" s="117"/>
     </row>
     <row r="242" spans="2:5" collapsed="1">
-      <c r="B242" s="121" t="s">
+      <c r="B242" s="125" t="s">
         <v>168</v>
       </c>
-      <c r="C242" s="121"/>
-      <c r="D242" s="121"/>
-      <c r="E242" s="121"/>
+      <c r="C242" s="125"/>
+      <c r="D242" s="125"/>
+      <c r="E242" s="125"/>
     </row>
     <row r="243" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="B243" s="115" t="s">
+      <c r="B243" s="97" t="s">
         <v>180</v>
       </c>
       <c r="C243" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="D243" s="99" t="b">
+      <c r="D243" s="86" t="b">
         <v>1</v>
       </c>
-      <c r="E243" s="108" t="s">
+      <c r="E243" s="88" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="244" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B244" s="113"/>
+      <c r="B244" s="98"/>
       <c r="C244" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="D244" s="99" t="b">
+      <c r="D244" s="86" t="b">
         <v>1</v>
       </c>
-      <c r="E244" s="108" t="s">
+      <c r="E244" s="88" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="245" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B245" s="113"/>
+      <c r="B245" s="98"/>
       <c r="C245" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="D245" s="99" t="b">
+      <c r="D245" s="86" t="b">
         <v>1</v>
       </c>
-      <c r="E245" s="122"/>
+      <c r="E245" s="89"/>
     </row>
     <row r="246" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B246" s="113"/>
+      <c r="B246" s="98"/>
       <c r="C246" s="36" t="s">
         <v>227</v>
       </c>
-      <c r="D246" s="99" t="s">
+      <c r="D246" s="86" t="s">
         <v>228</v>
       </c>
-      <c r="E246" s="122"/>
+      <c r="E246" s="89"/>
     </row>
     <row r="247" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B247" s="113"/>
+      <c r="B247" s="98"/>
       <c r="C247" s="36" t="s">
         <v>226</v>
       </c>
-      <c r="D247" s="99" t="b">
+      <c r="D247" s="86" t="b">
         <v>1</v>
       </c>
-      <c r="E247" s="98"/>
+      <c r="E247" s="87"/>
     </row>
     <row r="248" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B248" s="113"/>
+      <c r="B248" s="98"/>
       <c r="C248" s="36" t="s">
         <v>224</v>
       </c>
-      <c r="D248" s="99" t="s">
+      <c r="D248" s="86" t="s">
         <v>225</v>
       </c>
-      <c r="E248" s="98"/>
+      <c r="E248" s="87"/>
     </row>
     <row r="249" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B249" s="113"/>
+      <c r="B249" s="98"/>
       <c r="C249" s="36" t="s">
         <v>222</v>
       </c>
-      <c r="D249" s="99" t="s">
+      <c r="D249" s="86" t="s">
         <v>223</v>
       </c>
-      <c r="E249" s="98"/>
+      <c r="E249" s="87"/>
     </row>
     <row r="250" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B250" s="113"/>
+      <c r="B250" s="98"/>
       <c r="C250" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="D250" s="99" t="s">
+      <c r="D250" s="86" t="s">
         <v>237</v>
       </c>
-      <c r="E250" s="98"/>
+      <c r="E250" s="87"/>
     </row>
     <row r="251" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B251" s="113"/>
+      <c r="B251" s="98"/>
       <c r="C251" s="36" t="s">
         <v>218</v>
       </c>
-      <c r="D251" s="99" t="s">
+      <c r="D251" s="86" t="s">
         <v>219</v>
       </c>
-      <c r="E251" s="98"/>
+      <c r="E251" s="87"/>
     </row>
     <row r="252" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B252" s="113"/>
+      <c r="B252" s="98"/>
       <c r="C252" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="D252" s="99" t="s">
+      <c r="D252" s="86" t="s">
         <v>217</v>
       </c>
-      <c r="E252" s="98"/>
+      <c r="E252" s="87"/>
     </row>
     <row r="253" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B253" s="113"/>
+      <c r="B253" s="98"/>
       <c r="C253" s="36" t="s">
         <v>214</v>
       </c>
-      <c r="D253" s="99" t="s">
+      <c r="D253" s="86" t="s">
         <v>215</v>
       </c>
-      <c r="E253" s="98"/>
+      <c r="E253" s="87"/>
     </row>
     <row r="254" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B254" s="113"/>
+      <c r="B254" s="98"/>
       <c r="C254" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="D254" s="99" t="s">
+      <c r="D254" s="86" t="s">
         <v>232</v>
       </c>
-      <c r="E254" s="98"/>
+      <c r="E254" s="87"/>
     </row>
     <row r="255" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B255" s="113"/>
+      <c r="B255" s="98"/>
       <c r="C255" s="36" t="s">
         <v>211</v>
       </c>
-      <c r="D255" s="99" t="s">
+      <c r="D255" s="86" t="s">
         <v>212</v>
       </c>
-      <c r="E255" s="98"/>
+      <c r="E255" s="87"/>
     </row>
     <row r="256" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B256" s="113"/>
+      <c r="B256" s="98"/>
       <c r="C256" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="D256" s="99" t="s">
+      <c r="D256" s="86" t="s">
         <v>210</v>
       </c>
-      <c r="E256" s="98"/>
+      <c r="E256" s="87"/>
     </row>
     <row r="257" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B257" s="113"/>
+      <c r="B257" s="98"/>
       <c r="C257" s="36" t="s">
         <v>207</v>
       </c>
-      <c r="D257" s="99" t="s">
+      <c r="D257" s="86" t="s">
         <v>208</v>
       </c>
-      <c r="E257" s="98"/>
+      <c r="E257" s="87"/>
     </row>
     <row r="258" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B258" s="113"/>
+      <c r="B258" s="98"/>
       <c r="C258" s="36" t="s">
         <v>205</v>
       </c>
-      <c r="D258" s="99" t="s">
+      <c r="D258" s="86" t="s">
         <v>206</v>
       </c>
-      <c r="E258" s="98"/>
+      <c r="E258" s="87"/>
     </row>
     <row r="259" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B259" s="113"/>
+      <c r="B259" s="98"/>
       <c r="C259" s="36" t="s">
         <v>203</v>
       </c>
-      <c r="D259" s="99" t="s">
+      <c r="D259" s="86" t="s">
         <v>204</v>
       </c>
-      <c r="E259" s="98"/>
+      <c r="E259" s="87"/>
     </row>
     <row r="260" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B260" s="113"/>
+      <c r="B260" s="98"/>
       <c r="C260" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="D260" s="99" t="s">
+      <c r="D260" s="86" t="s">
         <v>202</v>
       </c>
-      <c r="E260" s="98"/>
+      <c r="E260" s="87"/>
     </row>
     <row r="261" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B261" s="113"/>
+      <c r="B261" s="98"/>
       <c r="C261" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="D261" s="99" t="s">
+      <c r="D261" s="86" t="s">
         <v>200</v>
       </c>
-      <c r="E261" s="98"/>
+      <c r="E261" s="87"/>
     </row>
     <row r="262" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B262" s="113"/>
+      <c r="B262" s="98"/>
       <c r="C262" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="D262" s="99">
+      <c r="D262" s="86">
         <v>41298</v>
       </c>
-      <c r="E262" s="98"/>
+      <c r="E262" s="87"/>
     </row>
     <row r="263" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B263" s="113"/>
+      <c r="B263" s="98"/>
       <c r="C263" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="D263" s="99">
+      <c r="D263" s="86">
         <v>41275</v>
       </c>
-      <c r="E263" s="98"/>
+      <c r="E263" s="87"/>
     </row>
     <row r="264" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B264" s="113"/>
+      <c r="B264" s="98"/>
       <c r="C264" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="D264" s="99">
+      <c r="D264" s="86">
         <v>41670</v>
       </c>
-      <c r="E264" s="98"/>
+      <c r="E264" s="87"/>
     </row>
     <row r="265" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B265" s="113"/>
+      <c r="B265" s="98"/>
       <c r="C265" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="D265" s="99">
+      <c r="D265" s="86">
         <v>41646</v>
       </c>
-      <c r="E265" s="98"/>
+      <c r="E265" s="87"/>
     </row>
     <row r="266" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B266" s="113"/>
+      <c r="B266" s="98"/>
       <c r="C266" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="D266" s="108" t="s">
+      <c r="D266" s="88" t="s">
         <v>194</v>
       </c>
-      <c r="E266" s="98"/>
+      <c r="E266" s="87"/>
     </row>
     <row r="267" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B267" s="113"/>
+      <c r="B267" s="98"/>
       <c r="C267" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="D267" s="108" t="s">
+      <c r="D267" s="88" t="s">
         <v>191</v>
       </c>
-      <c r="E267" s="98"/>
+      <c r="E267" s="87"/>
     </row>
     <row r="268" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B268" s="113"/>
+      <c r="B268" s="98"/>
       <c r="C268" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="D268" s="108" t="s">
+      <c r="D268" s="88" t="s">
         <v>189</v>
       </c>
-      <c r="E268" s="98"/>
+      <c r="E268" s="87"/>
     </row>
     <row r="269" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B269" s="113"/>
+      <c r="B269" s="98"/>
       <c r="C269" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="D269" s="108" t="s">
+      <c r="D269" s="88" t="s">
         <v>192</v>
       </c>
-      <c r="E269" s="98"/>
+      <c r="E269" s="87"/>
     </row>
     <row r="270" spans="2:5" s="41" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B270" s="113"/>
+      <c r="B270" s="98"/>
       <c r="C270" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="D270" s="108" t="s">
+      <c r="D270" s="88" t="s">
         <v>187</v>
       </c>
-      <c r="E270" s="98"/>
+      <c r="E270" s="87"/>
     </row>
     <row r="271" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="B271" s="113"/>
+      <c r="B271" s="98"/>
       <c r="C271" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="D271" s="99">
+      <c r="D271" s="86">
         <v>41648</v>
       </c>
-      <c r="E271" s="98"/>
+      <c r="E271" s="87"/>
     </row>
     <row r="272" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="B272" s="113"/>
+      <c r="B272" s="98"/>
       <c r="C272" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="D272" s="99">
+      <c r="D272" s="86">
         <v>40919</v>
       </c>
-      <c r="E272" s="98"/>
+      <c r="E272" s="87"/>
     </row>
     <row r="273" spans="2:5" hidden="1" outlineLevel="1">
       <c r="B273" s="5" t="s">
@@ -4921,19 +4958,19 @@
       </c>
     </row>
     <row r="282" spans="2:5" collapsed="1">
-      <c r="B282" s="125" t="s">
+      <c r="B282" s="99" t="s">
         <v>167</v>
       </c>
-      <c r="C282" s="126" t="s">
+      <c r="C282" s="100" t="s">
         <v>160</v>
       </c>
-      <c r="D282" s="127" t="s">
+      <c r="D282" s="101" t="s">
         <v>160</v>
       </c>
       <c r="E282" s="47"/>
     </row>
     <row r="283" spans="2:5" s="38" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B283" s="100" t="s">
+      <c r="B283" s="95" t="s">
         <v>180</v>
       </c>
       <c r="C283" s="48" t="s">
@@ -4945,7 +4982,7 @@
       <c r="E283" s="55"/>
     </row>
     <row r="284" spans="2:5" s="38" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B284" s="100"/>
+      <c r="B284" s="95"/>
       <c r="C284" s="48" t="s">
         <v>231</v>
       </c>
@@ -4955,7 +4992,7 @@
       <c r="E284" s="56"/>
     </row>
     <row r="285" spans="2:5" s="38" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B285" s="100"/>
+      <c r="B285" s="95"/>
       <c r="C285" s="48" t="s">
         <v>230</v>
       </c>
@@ -4965,7 +5002,7 @@
       <c r="E285" s="56"/>
     </row>
     <row r="286" spans="2:5" s="38" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B286" s="100"/>
+      <c r="B286" s="95"/>
       <c r="C286" s="48" t="s">
         <v>227</v>
       </c>
@@ -4975,7 +5012,7 @@
       <c r="E286" s="56"/>
     </row>
     <row r="287" spans="2:5" s="38" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B287" s="101"/>
+      <c r="B287" s="96"/>
       <c r="C287" s="48" t="s">
         <v>226</v>
       </c>
@@ -4985,7 +5022,7 @@
       <c r="E287" s="57"/>
     </row>
     <row r="288" spans="2:5" s="38" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B288" s="101"/>
+      <c r="B288" s="96"/>
       <c r="C288" s="48" t="s">
         <v>224</v>
       </c>
@@ -4995,7 +5032,7 @@
       <c r="E288" s="57"/>
     </row>
     <row r="289" spans="2:5" s="38" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B289" s="101"/>
+      <c r="B289" s="96"/>
       <c r="C289" s="48" t="s">
         <v>222</v>
       </c>
@@ -5005,7 +5042,7 @@
       <c r="E289" s="57"/>
     </row>
     <row r="290" spans="2:5" s="38" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B290" s="101"/>
+      <c r="B290" s="96"/>
       <c r="C290" s="48" t="s">
         <v>220</v>
       </c>
@@ -5015,7 +5052,7 @@
       <c r="E290" s="57"/>
     </row>
     <row r="291" spans="2:5" s="38" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B291" s="101"/>
+      <c r="B291" s="96"/>
       <c r="C291" s="48" t="s">
         <v>218</v>
       </c>
@@ -5025,7 +5062,7 @@
       <c r="E291" s="57"/>
     </row>
     <row r="292" spans="2:5" s="38" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B292" s="101"/>
+      <c r="B292" s="96"/>
       <c r="C292" s="48" t="s">
         <v>216</v>
       </c>
@@ -5035,7 +5072,7 @@
       <c r="E292" s="57"/>
     </row>
     <row r="293" spans="2:5" s="38" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B293" s="101"/>
+      <c r="B293" s="96"/>
       <c r="C293" s="48" t="s">
         <v>214</v>
       </c>
@@ -5045,7 +5082,7 @@
       <c r="E293" s="57"/>
     </row>
     <row r="294" spans="2:5" s="38" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B294" s="101"/>
+      <c r="B294" s="96"/>
       <c r="C294" s="48" t="s">
         <v>213</v>
       </c>
@@ -5055,7 +5092,7 @@
       <c r="E294" s="57"/>
     </row>
     <row r="295" spans="2:5" s="38" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B295" s="101"/>
+      <c r="B295" s="96"/>
       <c r="C295" s="48" t="s">
         <v>211</v>
       </c>
@@ -5065,7 +5102,7 @@
       <c r="E295" s="57"/>
     </row>
     <row r="296" spans="2:5" s="38" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B296" s="101"/>
+      <c r="B296" s="96"/>
       <c r="C296" s="48" t="s">
         <v>209</v>
       </c>
@@ -5075,7 +5112,7 @@
       <c r="E296" s="57"/>
     </row>
     <row r="297" spans="2:5" s="38" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B297" s="101"/>
+      <c r="B297" s="96"/>
       <c r="C297" s="48" t="s">
         <v>207</v>
       </c>
@@ -5085,7 +5122,7 @@
       <c r="E297" s="57"/>
     </row>
     <row r="298" spans="2:5" s="38" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B298" s="101"/>
+      <c r="B298" s="96"/>
       <c r="C298" s="48" t="s">
         <v>205</v>
       </c>
@@ -5095,7 +5132,7 @@
       <c r="E298" s="57"/>
     </row>
     <row r="299" spans="2:5" s="38" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B299" s="101"/>
+      <c r="B299" s="96"/>
       <c r="C299" s="48" t="s">
         <v>203</v>
       </c>
@@ -5105,7 +5142,7 @@
       <c r="E299" s="57"/>
     </row>
     <row r="300" spans="2:5" s="38" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B300" s="101"/>
+      <c r="B300" s="96"/>
       <c r="C300" s="48" t="s">
         <v>201</v>
       </c>
@@ -5115,7 +5152,7 @@
       <c r="E300" s="57"/>
     </row>
     <row r="301" spans="2:5" s="38" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B301" s="101"/>
+      <c r="B301" s="96"/>
       <c r="C301" s="48" t="s">
         <v>199</v>
       </c>
@@ -5125,7 +5162,7 @@
       <c r="E301" s="57"/>
     </row>
     <row r="302" spans="2:5" s="38" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B302" s="101"/>
+      <c r="B302" s="96"/>
       <c r="C302" s="48" t="s">
         <v>198</v>
       </c>
@@ -5135,7 +5172,7 @@
       <c r="E302" s="57"/>
     </row>
     <row r="303" spans="2:5" s="38" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B303" s="101"/>
+      <c r="B303" s="96"/>
       <c r="C303" s="48" t="s">
         <v>197</v>
       </c>
@@ -5145,7 +5182,7 @@
       <c r="E303" s="57"/>
     </row>
     <row r="304" spans="2:5" s="38" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B304" s="101"/>
+      <c r="B304" s="96"/>
       <c r="C304" s="48" t="s">
         <v>196</v>
       </c>
@@ -5155,7 +5192,7 @@
       <c r="E304" s="57"/>
     </row>
     <row r="305" spans="2:5" s="38" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B305" s="101"/>
+      <c r="B305" s="96"/>
       <c r="C305" s="48" t="s">
         <v>195</v>
       </c>
@@ -5165,7 +5202,7 @@
       <c r="E305" s="57"/>
     </row>
     <row r="306" spans="2:5" s="38" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B306" s="101"/>
+      <c r="B306" s="96"/>
       <c r="C306" s="48" t="s">
         <v>193</v>
       </c>
@@ -5175,7 +5212,7 @@
       <c r="E306" s="57"/>
     </row>
     <row r="307" spans="2:5" s="38" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B307" s="101"/>
+      <c r="B307" s="96"/>
       <c r="C307" s="48" t="s">
         <v>190</v>
       </c>
@@ -5185,7 +5222,7 @@
       <c r="E307" s="57"/>
     </row>
     <row r="308" spans="2:5" s="38" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B308" s="101"/>
+      <c r="B308" s="96"/>
       <c r="C308" s="48" t="s">
         <v>188</v>
       </c>
@@ -5195,7 +5232,7 @@
       <c r="E308" s="57"/>
     </row>
     <row r="309" spans="2:5" s="38" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B309" s="101"/>
+      <c r="B309" s="96"/>
       <c r="C309" s="48" t="s">
         <v>181</v>
       </c>
@@ -5205,7 +5242,7 @@
       <c r="E309" s="57"/>
     </row>
     <row r="310" spans="2:5" s="38" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B310" s="101"/>
+      <c r="B310" s="96"/>
       <c r="C310" s="43" t="s">
         <v>182</v>
       </c>
@@ -5215,7 +5252,7 @@
       <c r="E310" s="57"/>
     </row>
     <row r="311" spans="2:5" s="38" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B311" s="101"/>
+      <c r="B311" s="96"/>
       <c r="C311" s="48" t="s">
         <v>183</v>
       </c>
@@ -5225,7 +5262,7 @@
       <c r="E311" s="57"/>
     </row>
     <row r="312" spans="2:5" s="38" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B312" s="101"/>
+      <c r="B312" s="96"/>
       <c r="C312" s="48" t="s">
         <v>184</v>
       </c>
@@ -5318,13 +5355,13 @@
       <c r="C321" s="102" t="s">
         <v>178</v>
       </c>
-      <c r="D321" s="101" t="s">
+      <c r="D321" s="96" t="s">
         <v>178</v>
       </c>
       <c r="E321" s="47"/>
     </row>
     <row r="322" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="B322" s="100" t="s">
+      <c r="B322" s="95" t="s">
         <v>180</v>
       </c>
       <c r="C322" s="48" t="s">
@@ -5336,7 +5373,7 @@
       <c r="E322" s="55"/>
     </row>
     <row r="323" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="B323" s="100"/>
+      <c r="B323" s="95"/>
       <c r="C323" s="48" t="s">
         <v>231</v>
       </c>
@@ -5346,7 +5383,7 @@
       <c r="E323" s="56"/>
     </row>
     <row r="324" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="B324" s="100"/>
+      <c r="B324" s="95"/>
       <c r="C324" s="48" t="s">
         <v>230</v>
       </c>
@@ -5356,7 +5393,7 @@
       <c r="E324" s="56"/>
     </row>
     <row r="325" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="B325" s="100"/>
+      <c r="B325" s="95"/>
       <c r="C325" s="48" t="s">
         <v>227</v>
       </c>
@@ -5366,7 +5403,7 @@
       <c r="E325" s="56"/>
     </row>
     <row r="326" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="B326" s="101"/>
+      <c r="B326" s="96"/>
       <c r="C326" s="48" t="s">
         <v>226</v>
       </c>
@@ -5376,7 +5413,7 @@
       <c r="E326" s="57"/>
     </row>
     <row r="327" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="B327" s="101"/>
+      <c r="B327" s="96"/>
       <c r="C327" s="48" t="s">
         <v>224</v>
       </c>
@@ -5386,7 +5423,7 @@
       <c r="E327" s="57"/>
     </row>
     <row r="328" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="B328" s="101"/>
+      <c r="B328" s="96"/>
       <c r="C328" s="48" t="s">
         <v>222</v>
       </c>
@@ -5396,7 +5433,7 @@
       <c r="E328" s="57"/>
     </row>
     <row r="329" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="B329" s="101"/>
+      <c r="B329" s="96"/>
       <c r="C329" s="48" t="s">
         <v>220</v>
       </c>
@@ -5406,7 +5443,7 @@
       <c r="E329" s="57"/>
     </row>
     <row r="330" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="B330" s="101"/>
+      <c r="B330" s="96"/>
       <c r="C330" s="48" t="s">
         <v>218</v>
       </c>
@@ -5416,7 +5453,7 @@
       <c r="E330" s="57"/>
     </row>
     <row r="331" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="B331" s="101"/>
+      <c r="B331" s="96"/>
       <c r="C331" s="48" t="s">
         <v>216</v>
       </c>
@@ -5426,7 +5463,7 @@
       <c r="E331" s="57"/>
     </row>
     <row r="332" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="B332" s="101"/>
+      <c r="B332" s="96"/>
       <c r="C332" s="48" t="s">
         <v>214</v>
       </c>
@@ -5436,7 +5473,7 @@
       <c r="E332" s="57"/>
     </row>
     <row r="333" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="B333" s="101"/>
+      <c r="B333" s="96"/>
       <c r="C333" s="48" t="s">
         <v>213</v>
       </c>
@@ -5446,7 +5483,7 @@
       <c r="E333" s="57"/>
     </row>
     <row r="334" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="B334" s="101"/>
+      <c r="B334" s="96"/>
       <c r="C334" s="48" t="s">
         <v>211</v>
       </c>
@@ -5456,7 +5493,7 @@
       <c r="E334" s="57"/>
     </row>
     <row r="335" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="B335" s="101"/>
+      <c r="B335" s="96"/>
       <c r="C335" s="48" t="s">
         <v>209</v>
       </c>
@@ -5466,7 +5503,7 @@
       <c r="E335" s="57"/>
     </row>
     <row r="336" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="B336" s="101"/>
+      <c r="B336" s="96"/>
       <c r="C336" s="48" t="s">
         <v>207</v>
       </c>
@@ -5476,7 +5513,7 @@
       <c r="E336" s="57"/>
     </row>
     <row r="337" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="B337" s="101"/>
+      <c r="B337" s="96"/>
       <c r="C337" s="48" t="s">
         <v>205</v>
       </c>
@@ -5486,7 +5523,7 @@
       <c r="E337" s="57"/>
     </row>
     <row r="338" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="B338" s="101"/>
+      <c r="B338" s="96"/>
       <c r="C338" s="48" t="s">
         <v>203</v>
       </c>
@@ -5496,7 +5533,7 @@
       <c r="E338" s="57"/>
     </row>
     <row r="339" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="B339" s="101"/>
+      <c r="B339" s="96"/>
       <c r="C339" s="48" t="s">
         <v>201</v>
       </c>
@@ -5506,7 +5543,7 @@
       <c r="E339" s="57"/>
     </row>
     <row r="340" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="B340" s="101"/>
+      <c r="B340" s="96"/>
       <c r="C340" s="48" t="s">
         <v>199</v>
       </c>
@@ -5516,7 +5553,7 @@
       <c r="E340" s="57"/>
     </row>
     <row r="341" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="B341" s="101"/>
+      <c r="B341" s="96"/>
       <c r="C341" s="48" t="s">
         <v>198</v>
       </c>
@@ -5526,7 +5563,7 @@
       <c r="E341" s="57"/>
     </row>
     <row r="342" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="B342" s="101"/>
+      <c r="B342" s="96"/>
       <c r="C342" s="48" t="s">
         <v>197</v>
       </c>
@@ -5536,7 +5573,7 @@
       <c r="E342" s="57"/>
     </row>
     <row r="343" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="B343" s="101"/>
+      <c r="B343" s="96"/>
       <c r="C343" s="48" t="s">
         <v>196</v>
       </c>
@@ -5546,7 +5583,7 @@
       <c r="E343" s="57"/>
     </row>
     <row r="344" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="B344" s="101"/>
+      <c r="B344" s="96"/>
       <c r="C344" s="48" t="s">
         <v>195</v>
       </c>
@@ -5556,7 +5593,7 @@
       <c r="E344" s="57"/>
     </row>
     <row r="345" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="B345" s="101"/>
+      <c r="B345" s="96"/>
       <c r="C345" s="48" t="s">
         <v>193</v>
       </c>
@@ -5566,7 +5603,7 @@
       <c r="E345" s="57"/>
     </row>
     <row r="346" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="B346" s="101"/>
+      <c r="B346" s="96"/>
       <c r="C346" s="48" t="s">
         <v>190</v>
       </c>
@@ -5576,7 +5613,7 @@
       <c r="E346" s="57"/>
     </row>
     <row r="347" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="B347" s="101"/>
+      <c r="B347" s="96"/>
       <c r="C347" s="48" t="s">
         <v>188</v>
       </c>
@@ -5586,7 +5623,7 @@
       <c r="E347" s="57"/>
     </row>
     <row r="348" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="B348" s="101"/>
+      <c r="B348" s="96"/>
       <c r="C348" s="48" t="s">
         <v>181</v>
       </c>
@@ -5596,7 +5633,7 @@
       <c r="E348" s="57"/>
     </row>
     <row r="349" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="B349" s="101"/>
+      <c r="B349" s="96"/>
       <c r="C349" s="43" t="s">
         <v>182</v>
       </c>
@@ -5606,7 +5643,7 @@
       <c r="E349" s="57"/>
     </row>
     <row r="350" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="B350" s="101"/>
+      <c r="B350" s="96"/>
       <c r="C350" s="48" t="s">
         <v>183</v>
       </c>
@@ -5616,7 +5653,7 @@
       <c r="E350" s="57"/>
     </row>
     <row r="351" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="B351" s="101"/>
+      <c r="B351" s="96"/>
       <c r="C351" s="48" t="s">
         <v>184</v>
       </c>
@@ -5685,14 +5722,14 @@
       <c r="D357" s="41"/>
     </row>
     <row r="358" spans="2:5" collapsed="1">
-      <c r="B358" s="92" t="s">
+      <c r="B358" s="124" t="s">
         <v>245</v>
       </c>
-      <c r="C358" s="92"/>
-      <c r="D358" s="92"/>
+      <c r="C358" s="124"/>
+      <c r="D358" s="124"/>
     </row>
     <row r="359" spans="2:5" s="79" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B359" s="90" t="s">
+      <c r="B359" s="118" t="s">
         <v>180</v>
       </c>
       <c r="C359" s="75" t="s">
@@ -5703,7 +5740,7 @@
       </c>
     </row>
     <row r="360" spans="2:5" s="79" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B360" s="90"/>
+      <c r="B360" s="118"/>
       <c r="C360" s="75" t="s">
         <v>193</v>
       </c>
@@ -5712,7 +5749,7 @@
       </c>
     </row>
     <row r="361" spans="2:5" s="79" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B361" s="90"/>
+      <c r="B361" s="118"/>
       <c r="C361" s="75" t="s">
         <v>190</v>
       </c>
@@ -5721,7 +5758,7 @@
       </c>
     </row>
     <row r="362" spans="2:5" s="79" customFormat="1" ht="21.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B362" s="90"/>
+      <c r="B362" s="118"/>
       <c r="C362" s="75" t="s">
         <v>188</v>
       </c>
@@ -5730,7 +5767,7 @@
       </c>
     </row>
     <row r="363" spans="2:5" s="79" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B363" s="90"/>
+      <c r="B363" s="118"/>
       <c r="C363" s="75" t="s">
         <v>181</v>
       </c>
@@ -5739,7 +5776,7 @@
       </c>
     </row>
     <row r="364" spans="2:5" s="79" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B364" s="90"/>
+      <c r="B364" s="118"/>
       <c r="C364" s="71" t="s">
         <v>182</v>
       </c>
@@ -5748,7 +5785,7 @@
       </c>
     </row>
     <row r="365" spans="2:5" s="79" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B365" s="90"/>
+      <c r="B365" s="118"/>
       <c r="C365" s="75" t="s">
         <v>183</v>
       </c>
@@ -5757,7 +5794,7 @@
       </c>
     </row>
     <row r="366" spans="2:5" s="79" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B366" s="90"/>
+      <c r="B366" s="118"/>
       <c r="C366" s="75" t="s">
         <v>184</v>
       </c>
@@ -5769,20 +5806,20 @@
       <c r="B367" s="76" t="s">
         <v>244</v>
       </c>
-      <c r="C367" s="91" t="s">
+      <c r="C367" s="123" t="s">
         <v>238</v>
       </c>
-      <c r="D367" s="91"/>
+      <c r="D367" s="123"/>
     </row>
     <row r="370" spans="2:4" collapsed="1">
-      <c r="B370" s="105" t="s">
+      <c r="B370" s="90" t="s">
         <v>179</v>
       </c>
-      <c r="C370" s="106"/>
-      <c r="D370" s="107"/>
+      <c r="C370" s="91"/>
+      <c r="D370" s="92"/>
     </row>
     <row r="371" spans="2:4" s="69" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B371" s="124" t="s">
+      <c r="B371" s="94" t="s">
         <v>180</v>
       </c>
       <c r="C371" s="73" t="s">
@@ -5793,7 +5830,7 @@
       </c>
     </row>
     <row r="372" spans="2:4" s="69" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B372" s="123"/>
+      <c r="B372" s="93"/>
       <c r="C372" s="49" t="s">
         <v>222</v>
       </c>
@@ -5802,7 +5839,7 @@
       </c>
     </row>
     <row r="373" spans="2:4" s="69" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B373" s="123"/>
+      <c r="B373" s="93"/>
       <c r="C373" s="73" t="s">
         <v>190</v>
       </c>
@@ -5811,7 +5848,7 @@
       </c>
     </row>
     <row r="374" spans="2:4" s="69" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B374" s="123"/>
+      <c r="B374" s="93"/>
       <c r="C374" s="73" t="s">
         <v>188</v>
       </c>
@@ -5820,7 +5857,7 @@
       </c>
     </row>
     <row r="375" spans="2:4" s="69" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B375" s="123"/>
+      <c r="B375" s="93"/>
       <c r="C375" s="73" t="s">
         <v>181</v>
       </c>
@@ -5829,7 +5866,7 @@
       </c>
     </row>
     <row r="376" spans="2:4" s="69" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B376" s="123"/>
+      <c r="B376" s="93"/>
       <c r="C376" s="70" t="s">
         <v>182</v>
       </c>
@@ -5838,7 +5875,7 @@
       </c>
     </row>
     <row r="377" spans="2:4" s="69" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B377" s="123"/>
+      <c r="B377" s="93"/>
       <c r="C377" s="73" t="s">
         <v>183</v>
       </c>
@@ -5847,7 +5884,7 @@
       </c>
     </row>
     <row r="378" spans="2:4" s="69" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B378" s="123"/>
+      <c r="B378" s="93"/>
       <c r="C378" s="73" t="s">
         <v>184</v>
       </c>
@@ -5859,28 +5896,28 @@
       <c r="B379" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="C379" s="123" t="s">
+      <c r="C379" s="93" t="s">
         <v>120</v>
       </c>
-      <c r="D379" s="123"/>
+      <c r="D379" s="93"/>
     </row>
     <row r="380" spans="2:4" hidden="1" outlineLevel="1">
       <c r="B380" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="C380" s="123" t="s">
+      <c r="C380" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="D380" s="123"/>
+      <c r="D380" s="93"/>
     </row>
     <row r="381" spans="2:4" hidden="1" outlineLevel="1">
       <c r="B381" s="70">
         <v>3</v>
       </c>
-      <c r="C381" s="123" t="s">
+      <c r="C381" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="D381" s="123"/>
+      <c r="D381" s="93"/>
     </row>
     <row r="382" spans="2:4">
       <c r="B382" s="68"/>
@@ -5888,18 +5925,18 @@
       <c r="D382" s="69"/>
     </row>
     <row r="384" spans="2:4" collapsed="1">
-      <c r="B384" s="98" t="s">
+      <c r="B384" s="87" t="s">
         <v>166</v>
       </c>
-      <c r="C384" s="98" t="s">
+      <c r="C384" s="87" t="s">
         <v>166</v>
       </c>
-      <c r="D384" s="98" t="s">
+      <c r="D384" s="87" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="385" spans="2:4" hidden="1" outlineLevel="1">
-      <c r="B385" s="88" t="s">
+      <c r="B385" s="121" t="s">
         <v>180</v>
       </c>
       <c r="C385" s="71" t="s">
@@ -5910,7 +5947,7 @@
       </c>
     </row>
     <row r="386" spans="2:4" hidden="1" outlineLevel="1">
-      <c r="B386" s="88"/>
+      <c r="B386" s="121"/>
       <c r="C386" s="71" t="s">
         <v>190</v>
       </c>
@@ -5919,7 +5956,7 @@
       </c>
     </row>
     <row r="387" spans="2:4" s="79" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B387" s="89"/>
+      <c r="B387" s="122"/>
       <c r="C387" s="75" t="s">
         <v>222</v>
       </c>
@@ -5928,7 +5965,7 @@
       </c>
     </row>
     <row r="388" spans="2:4" hidden="1" outlineLevel="1">
-      <c r="B388" s="89"/>
+      <c r="B388" s="122"/>
       <c r="C388" s="71" t="s">
         <v>188</v>
       </c>
@@ -6279,7 +6316,7 @@
       <c r="D421" s="102"/>
     </row>
     <row r="422" spans="2:4" outlineLevel="1">
-      <c r="B422" s="100" t="s">
+      <c r="B422" s="95" t="s">
         <v>180</v>
       </c>
       <c r="C422" s="80" t="s">
@@ -6290,7 +6327,7 @@
       </c>
     </row>
     <row r="423" spans="2:4" outlineLevel="1">
-      <c r="B423" s="100"/>
+      <c r="B423" s="95"/>
       <c r="C423" s="80" t="s">
         <v>231</v>
       </c>
@@ -6299,7 +6336,7 @@
       </c>
     </row>
     <row r="424" spans="2:4" outlineLevel="1">
-      <c r="B424" s="100"/>
+      <c r="B424" s="95"/>
       <c r="C424" s="80" t="s">
         <v>230</v>
       </c>
@@ -6308,7 +6345,7 @@
       </c>
     </row>
     <row r="425" spans="2:4" outlineLevel="1">
-      <c r="B425" s="100"/>
+      <c r="B425" s="95"/>
       <c r="C425" s="80" t="s">
         <v>227</v>
       </c>
@@ -6317,7 +6354,7 @@
       </c>
     </row>
     <row r="426" spans="2:4" outlineLevel="1">
-      <c r="B426" s="100"/>
+      <c r="B426" s="95"/>
       <c r="C426" s="80" t="s">
         <v>226</v>
       </c>
@@ -6326,7 +6363,7 @@
       </c>
     </row>
     <row r="427" spans="2:4" outlineLevel="1">
-      <c r="B427" s="100"/>
+      <c r="B427" s="95"/>
       <c r="C427" s="80" t="s">
         <v>224</v>
       </c>
@@ -6335,7 +6372,7 @@
       </c>
     </row>
     <row r="428" spans="2:4" outlineLevel="1">
-      <c r="B428" s="100"/>
+      <c r="B428" s="95"/>
       <c r="C428" s="80" t="s">
         <v>222</v>
       </c>
@@ -6344,7 +6381,7 @@
       </c>
     </row>
     <row r="429" spans="2:4" outlineLevel="1">
-      <c r="B429" s="100"/>
+      <c r="B429" s="95"/>
       <c r="C429" s="80" t="s">
         <v>220</v>
       </c>
@@ -6353,7 +6390,7 @@
       </c>
     </row>
     <row r="430" spans="2:4" outlineLevel="1">
-      <c r="B430" s="100"/>
+      <c r="B430" s="95"/>
       <c r="C430" s="80" t="s">
         <v>218</v>
       </c>
@@ -6362,7 +6399,7 @@
       </c>
     </row>
     <row r="431" spans="2:4" outlineLevel="1">
-      <c r="B431" s="100"/>
+      <c r="B431" s="95"/>
       <c r="C431" s="80" t="s">
         <v>216</v>
       </c>
@@ -6371,7 +6408,7 @@
       </c>
     </row>
     <row r="432" spans="2:4" outlineLevel="1">
-      <c r="B432" s="100"/>
+      <c r="B432" s="95"/>
       <c r="C432" s="80" t="s">
         <v>214</v>
       </c>
@@ -6380,7 +6417,7 @@
       </c>
     </row>
     <row r="433" spans="2:4" outlineLevel="1">
-      <c r="B433" s="100"/>
+      <c r="B433" s="95"/>
       <c r="C433" s="80" t="s">
         <v>213</v>
       </c>
@@ -6389,7 +6426,7 @@
       </c>
     </row>
     <row r="434" spans="2:4" outlineLevel="1">
-      <c r="B434" s="100"/>
+      <c r="B434" s="95"/>
       <c r="C434" s="80" t="s">
         <v>211</v>
       </c>
@@ -6398,7 +6435,7 @@
       </c>
     </row>
     <row r="435" spans="2:4" outlineLevel="1">
-      <c r="B435" s="100"/>
+      <c r="B435" s="95"/>
       <c r="C435" s="80" t="s">
         <v>209</v>
       </c>
@@ -6407,7 +6444,7 @@
       </c>
     </row>
     <row r="436" spans="2:4" outlineLevel="1">
-      <c r="B436" s="100"/>
+      <c r="B436" s="95"/>
       <c r="C436" s="80" t="s">
         <v>207</v>
       </c>
@@ -6416,7 +6453,7 @@
       </c>
     </row>
     <row r="437" spans="2:4" outlineLevel="1">
-      <c r="B437" s="100"/>
+      <c r="B437" s="95"/>
       <c r="C437" s="80" t="s">
         <v>205</v>
       </c>
@@ -6425,7 +6462,7 @@
       </c>
     </row>
     <row r="438" spans="2:4" outlineLevel="1">
-      <c r="B438" s="100"/>
+      <c r="B438" s="95"/>
       <c r="C438" s="80" t="s">
         <v>203</v>
       </c>
@@ -6434,7 +6471,7 @@
       </c>
     </row>
     <row r="439" spans="2:4" outlineLevel="1">
-      <c r="B439" s="100"/>
+      <c r="B439" s="95"/>
       <c r="C439" s="80" t="s">
         <v>201</v>
       </c>
@@ -6443,7 +6480,7 @@
       </c>
     </row>
     <row r="440" spans="2:4" outlineLevel="1">
-      <c r="B440" s="100"/>
+      <c r="B440" s="95"/>
       <c r="C440" s="80" t="s">
         <v>199</v>
       </c>
@@ -6452,7 +6489,7 @@
       </c>
     </row>
     <row r="441" spans="2:4" outlineLevel="1">
-      <c r="B441" s="100"/>
+      <c r="B441" s="95"/>
       <c r="C441" s="80" t="s">
         <v>198</v>
       </c>
@@ -6461,7 +6498,7 @@
       </c>
     </row>
     <row r="442" spans="2:4" outlineLevel="1">
-      <c r="B442" s="100"/>
+      <c r="B442" s="95"/>
       <c r="C442" s="80" t="s">
         <v>197</v>
       </c>
@@ -6470,7 +6507,7 @@
       </c>
     </row>
     <row r="443" spans="2:4" outlineLevel="1">
-      <c r="B443" s="100"/>
+      <c r="B443" s="95"/>
       <c r="C443" s="80" t="s">
         <v>196</v>
       </c>
@@ -6479,7 +6516,7 @@
       </c>
     </row>
     <row r="444" spans="2:4" outlineLevel="1">
-      <c r="B444" s="100"/>
+      <c r="B444" s="95"/>
       <c r="C444" s="80" t="s">
         <v>195</v>
       </c>
@@ -6488,7 +6525,7 @@
       </c>
     </row>
     <row r="445" spans="2:4" outlineLevel="1">
-      <c r="B445" s="100"/>
+      <c r="B445" s="95"/>
       <c r="C445" s="80" t="s">
         <v>193</v>
       </c>
@@ -6497,7 +6534,7 @@
       </c>
     </row>
     <row r="446" spans="2:4" outlineLevel="1">
-      <c r="B446" s="100"/>
+      <c r="B446" s="95"/>
       <c r="C446" s="80" t="s">
         <v>190</v>
       </c>
@@ -6506,7 +6543,7 @@
       </c>
     </row>
     <row r="447" spans="2:4" outlineLevel="1">
-      <c r="B447" s="100"/>
+      <c r="B447" s="95"/>
       <c r="C447" s="80" t="s">
         <v>188</v>
       </c>
@@ -6515,7 +6552,7 @@
       </c>
     </row>
     <row r="448" spans="2:4" outlineLevel="1">
-      <c r="B448" s="100"/>
+      <c r="B448" s="95"/>
       <c r="C448" s="80" t="s">
         <v>181</v>
       </c>
@@ -6524,7 +6561,7 @@
       </c>
     </row>
     <row r="449" spans="2:4" outlineLevel="1">
-      <c r="B449" s="100"/>
+      <c r="B449" s="95"/>
       <c r="C449" s="81" t="s">
         <v>182</v>
       </c>
@@ -6533,7 +6570,7 @@
       </c>
     </row>
     <row r="450" spans="2:4" outlineLevel="1">
-      <c r="B450" s="100"/>
+      <c r="B450" s="95"/>
       <c r="C450" s="80" t="s">
         <v>183</v>
       </c>
@@ -6542,7 +6579,7 @@
       </c>
     </row>
     <row r="451" spans="2:4" outlineLevel="1">
-      <c r="B451" s="100"/>
+      <c r="B451" s="95"/>
       <c r="C451" s="80" t="s">
         <v>184</v>
       </c>
@@ -6554,10 +6591,10 @@
       <c r="B452" s="83" t="s">
         <v>246</v>
       </c>
-      <c r="C452" s="95" t="s">
+      <c r="C452" s="103" t="s">
         <v>247</v>
       </c>
-      <c r="D452" s="114"/>
+      <c r="D452" s="104"/>
     </row>
     <row r="453" spans="2:4" outlineLevel="1">
       <c r="B453" s="82" t="s">
@@ -6567,13 +6604,13 @@
       <c r="D453" s="102"/>
     </row>
     <row r="454" spans="2:4" s="79" customFormat="1" outlineLevel="1">
-      <c r="B454" s="86" t="s">
+      <c r="B454" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="C454" s="84" t="s">
+      <c r="C454" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="D454" s="85"/>
+      <c r="D454" s="104"/>
     </row>
     <row r="455" spans="2:4" outlineLevel="1">
       <c r="B455" s="82" t="s">
@@ -6585,29 +6622,99 @@
       <c r="D455" s="102"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
-    <mergeCell ref="D253:E253"/>
-    <mergeCell ref="D254:E254"/>
-    <mergeCell ref="D243:E243"/>
-    <mergeCell ref="D244:E244"/>
-    <mergeCell ref="D245:E245"/>
-    <mergeCell ref="B370:D370"/>
-    <mergeCell ref="C381:D381"/>
-    <mergeCell ref="C380:D380"/>
-    <mergeCell ref="C379:D379"/>
-    <mergeCell ref="B371:B378"/>
-    <mergeCell ref="B322:B351"/>
-    <mergeCell ref="B243:B272"/>
-    <mergeCell ref="B282:D282"/>
-    <mergeCell ref="D246:E246"/>
-    <mergeCell ref="D258:E258"/>
-    <mergeCell ref="D259:E259"/>
-    <mergeCell ref="D260:E260"/>
-    <mergeCell ref="D250:E250"/>
-    <mergeCell ref="D251:E251"/>
-    <mergeCell ref="D255:E255"/>
-    <mergeCell ref="D256:E256"/>
-    <mergeCell ref="D257:E257"/>
+  <mergeCells count="138">
+    <mergeCell ref="C454:D454"/>
+    <mergeCell ref="B385:B388"/>
+    <mergeCell ref="B359:B366"/>
+    <mergeCell ref="C367:D367"/>
+    <mergeCell ref="B358:D358"/>
+    <mergeCell ref="D193:E193"/>
+    <mergeCell ref="D183:E183"/>
+    <mergeCell ref="D184:E184"/>
+    <mergeCell ref="D185:E185"/>
+    <mergeCell ref="D186:E186"/>
+    <mergeCell ref="D187:E187"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="D190:E190"/>
+    <mergeCell ref="B238:D238"/>
+    <mergeCell ref="B239:D239"/>
+    <mergeCell ref="D266:E266"/>
+    <mergeCell ref="D267:E267"/>
+    <mergeCell ref="D261:E261"/>
+    <mergeCell ref="D247:E247"/>
+    <mergeCell ref="D248:E248"/>
+    <mergeCell ref="D249:E249"/>
+    <mergeCell ref="B229:B237"/>
+    <mergeCell ref="B242:E242"/>
+    <mergeCell ref="D262:E262"/>
+    <mergeCell ref="D192:E192"/>
+    <mergeCell ref="B384:D384"/>
+    <mergeCell ref="D252:E252"/>
+    <mergeCell ref="B283:B312"/>
+    <mergeCell ref="B321:D321"/>
+    <mergeCell ref="B215:D215"/>
+    <mergeCell ref="B166:B193"/>
+    <mergeCell ref="C210:D210"/>
+    <mergeCell ref="C212:D212"/>
+    <mergeCell ref="B200:D200"/>
+    <mergeCell ref="D268:E268"/>
+    <mergeCell ref="D173:E173"/>
+    <mergeCell ref="D269:E269"/>
+    <mergeCell ref="D270:E270"/>
+    <mergeCell ref="D271:E271"/>
+    <mergeCell ref="D272:E272"/>
+    <mergeCell ref="D263:E263"/>
+    <mergeCell ref="D264:E264"/>
+    <mergeCell ref="D265:E265"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="D168:E168"/>
+    <mergeCell ref="D169:E169"/>
+    <mergeCell ref="D170:E170"/>
+    <mergeCell ref="D171:E171"/>
+    <mergeCell ref="D172:E172"/>
+    <mergeCell ref="D191:E191"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="D179:E179"/>
+    <mergeCell ref="D180:E180"/>
+    <mergeCell ref="D181:E181"/>
+    <mergeCell ref="D182:E182"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="D96:F96"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B76:F76"/>
+    <mergeCell ref="B165:E165"/>
+    <mergeCell ref="B4:B30"/>
+    <mergeCell ref="B228:D228"/>
+    <mergeCell ref="B216:B224"/>
+    <mergeCell ref="C225:D225"/>
+    <mergeCell ref="C226:D226"/>
+    <mergeCell ref="B201:B209"/>
+    <mergeCell ref="D77:F77"/>
+    <mergeCell ref="D78:F78"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="B42:B71"/>
+    <mergeCell ref="C211:D211"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="D88:F88"/>
+    <mergeCell ref="D89:F89"/>
     <mergeCell ref="B421:D421"/>
     <mergeCell ref="B422:B451"/>
     <mergeCell ref="C453:D453"/>
@@ -6632,97 +6739,28 @@
     <mergeCell ref="D174:E174"/>
     <mergeCell ref="D175:E175"/>
     <mergeCell ref="D176:E176"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B76:F76"/>
-    <mergeCell ref="B165:E165"/>
-    <mergeCell ref="B4:B30"/>
-    <mergeCell ref="B228:D228"/>
-    <mergeCell ref="B216:B224"/>
-    <mergeCell ref="C225:D225"/>
-    <mergeCell ref="C226:D226"/>
-    <mergeCell ref="B201:B209"/>
-    <mergeCell ref="D77:F77"/>
-    <mergeCell ref="D78:F78"/>
-    <mergeCell ref="D79:F79"/>
-    <mergeCell ref="D80:F80"/>
-    <mergeCell ref="D81:F81"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="D84:F84"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="D86:F86"/>
-    <mergeCell ref="B42:B71"/>
-    <mergeCell ref="C211:D211"/>
-    <mergeCell ref="D87:F87"/>
-    <mergeCell ref="D88:F88"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="D90:F90"/>
-    <mergeCell ref="D91:F91"/>
-    <mergeCell ref="D92:F92"/>
-    <mergeCell ref="D93:F93"/>
-    <mergeCell ref="D94:F94"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="D96:F96"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="D168:E168"/>
-    <mergeCell ref="D169:E169"/>
-    <mergeCell ref="D170:E170"/>
-    <mergeCell ref="D171:E171"/>
-    <mergeCell ref="D172:E172"/>
-    <mergeCell ref="D191:E191"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="D179:E179"/>
-    <mergeCell ref="D180:E180"/>
-    <mergeCell ref="D181:E181"/>
-    <mergeCell ref="D182:E182"/>
-    <mergeCell ref="D192:E192"/>
-    <mergeCell ref="B384:D384"/>
-    <mergeCell ref="D252:E252"/>
-    <mergeCell ref="B283:B312"/>
-    <mergeCell ref="B321:D321"/>
-    <mergeCell ref="B215:D215"/>
-    <mergeCell ref="B166:B193"/>
-    <mergeCell ref="C210:D210"/>
-    <mergeCell ref="C212:D212"/>
-    <mergeCell ref="B200:D200"/>
-    <mergeCell ref="D268:E268"/>
-    <mergeCell ref="D173:E173"/>
-    <mergeCell ref="D269:E269"/>
-    <mergeCell ref="D270:E270"/>
-    <mergeCell ref="D271:E271"/>
-    <mergeCell ref="D272:E272"/>
-    <mergeCell ref="D263:E263"/>
-    <mergeCell ref="D264:E264"/>
-    <mergeCell ref="D265:E265"/>
-    <mergeCell ref="B385:B388"/>
-    <mergeCell ref="B359:B366"/>
-    <mergeCell ref="C367:D367"/>
-    <mergeCell ref="B358:D358"/>
-    <mergeCell ref="D193:E193"/>
-    <mergeCell ref="D183:E183"/>
-    <mergeCell ref="D184:E184"/>
-    <mergeCell ref="D185:E185"/>
-    <mergeCell ref="D186:E186"/>
-    <mergeCell ref="D187:E187"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="D190:E190"/>
-    <mergeCell ref="B238:D238"/>
-    <mergeCell ref="B239:D239"/>
-    <mergeCell ref="D266:E266"/>
-    <mergeCell ref="D267:E267"/>
-    <mergeCell ref="D261:E261"/>
-    <mergeCell ref="D247:E247"/>
-    <mergeCell ref="D248:E248"/>
-    <mergeCell ref="D249:E249"/>
-    <mergeCell ref="B229:B237"/>
-    <mergeCell ref="B242:E242"/>
-    <mergeCell ref="D262:E262"/>
+    <mergeCell ref="D253:E253"/>
+    <mergeCell ref="D254:E254"/>
+    <mergeCell ref="D243:E243"/>
+    <mergeCell ref="D244:E244"/>
+    <mergeCell ref="D245:E245"/>
+    <mergeCell ref="B370:D370"/>
+    <mergeCell ref="C381:D381"/>
+    <mergeCell ref="C380:D380"/>
+    <mergeCell ref="C379:D379"/>
+    <mergeCell ref="B371:B378"/>
+    <mergeCell ref="B322:B351"/>
+    <mergeCell ref="B243:B272"/>
+    <mergeCell ref="B282:D282"/>
+    <mergeCell ref="D246:E246"/>
+    <mergeCell ref="D258:E258"/>
+    <mergeCell ref="D259:E259"/>
+    <mergeCell ref="D260:E260"/>
+    <mergeCell ref="D250:E250"/>
+    <mergeCell ref="D251:E251"/>
+    <mergeCell ref="D255:E255"/>
+    <mergeCell ref="D256:E256"/>
+    <mergeCell ref="D257:E257"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
